--- a/performanceResult.xlsx
+++ b/performanceResult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20900" yWindow="2200" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="51580" yWindow="8380" windowWidth="51200" windowHeight="27560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
   <si>
     <t>Platform: Hudson-31</t>
   </si>
@@ -493,6 +493,27 @@
   </si>
   <si>
     <t>performance increment(compiler)</t>
+  </si>
+  <si>
+    <t>Apply ROSE</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x+m</t>
+  </si>
+  <si>
+    <t>x+m+bug to be fixed</t>
+  </si>
+  <si>
+    <t>x+bug to be fixed</t>
+  </si>
+  <si>
+    <t>time runrose library</t>
+  </si>
+  <si>
+    <t>Time runrose nolibrary</t>
   </si>
 </sst>
 </file>
@@ -541,8 +562,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -554,13 +585,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,18 +931,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H155" sqref="H155"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="6" max="8" width="17.83203125" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -912,16 +956,25 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -931,15 +984,32 @@
       <c r="C2">
         <v>3.38</v>
       </c>
-      <c r="D2">
-        <v>32000</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <f>(B2/C2)*100%</f>
         <v>2.3579881656804735</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="E2">
+        <v>32000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2">
+        <v>7.07</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(C2/G2)*100%</f>
+        <v>0.47807637906647804</v>
+      </c>
+      <c r="I2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(C2/I2)*100%</f>
+        <v>0.73478260869565226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -949,15 +1019,23 @@
       <c r="C3">
         <v>4.84</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
+        <f>(B3/C3)*100%</f>
+        <v>0.98140495867768596</v>
+      </c>
+      <c r="E3">
         <v>32000.410156000002</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F66" si="0">(B3/C3)*100%</f>
-        <v>0.98140495867768596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="H3" s="1" t="e">
+        <f t="shared" ref="H3:J66" si="0">(C3/G3)*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J3" s="1" t="e">
+        <f t="shared" ref="J3:J66" si="1">(C3/I3)*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -967,15 +1045,23 @@
       <c r="C4">
         <v>10.11</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
+        <f>(B4/C4)*100%</f>
+        <v>0.9970326409495549</v>
+      </c>
+      <c r="E4">
         <v>16005.412109000001</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9970326409495549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -985,15 +1071,23 @@
       <c r="C5">
         <v>12.08</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
+        <f>(B5/C5)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>84644.898438000004</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1003,15 +1097,32 @@
       <c r="C6">
         <v>12.09</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <f>(B6/C6)*100%</f>
+        <v>0.99503722084367241</v>
+      </c>
+      <c r="E6">
         <v>32001.640625</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99503722084367241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="F6" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6">
+        <v>11.54</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0476603119584056</v>
+      </c>
+      <c r="I6">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7320916905444126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1021,15 +1132,32 @@
       <c r="C7">
         <v>16.07</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
+        <f>(B7/C7)*100%</f>
+        <v>0.99377722464219043</v>
+      </c>
+      <c r="E7">
         <v>32000.640625</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99377722464219043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>13.6</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1816176470588236</v>
+      </c>
+      <c r="I7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7620614035087721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1039,15 +1167,23 @@
       <c r="C8">
         <v>8.0399999999999991</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
+        <f>(B8/C8)*100%</f>
+        <v>0.99253731343283602</v>
+      </c>
+      <c r="E8">
         <v>32001.640625</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99253731343283602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="H8" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J8" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1057,15 +1193,23 @@
       <c r="C9">
         <v>8.31</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
+        <f>(B9/C9)*100%</f>
+        <v>0.99518652226233439</v>
+      </c>
+      <c r="E9">
         <v>2634.2202149999998</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99518652226233439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="H9" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J9" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1075,15 +1219,23 @@
       <c r="C10">
         <v>38.19</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
+        <f>(B10/C10)*100%</f>
+        <v>0.99607227022780831</v>
+      </c>
+      <c r="E10">
         <v>31746.753906000002</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99607227022780831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="H10" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J10" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1093,15 +1245,23 @@
       <c r="C11">
         <v>9.9700000000000006</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
+        <f>(B11/C11)*100%</f>
+        <v>0.97492477432296887</v>
+      </c>
+      <c r="E11">
         <v>6.5485000000000002E-2</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>0.97492477432296887</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="H11" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J11" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1111,15 +1271,23 @@
       <c r="C12">
         <v>24.51</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
+        <f>(B12/C12)*100%</f>
+        <v>0.99959200326397379</v>
+      </c>
+      <c r="E12">
         <v>32000</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99959200326397379</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="H12" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J12" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1129,15 +1297,23 @@
       <c r="C13">
         <v>8.43</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
+        <f>(B13/C13)*100%</f>
+        <v>0.98695136417556351</v>
+      </c>
+      <c r="E13">
         <v>1239551</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98695136417556351</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="H13" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1147,15 +1323,23 @@
       <c r="C14">
         <v>4.47</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
+        <f>(B14/C14)*100%</f>
+        <v>2.0559284116331096</v>
+      </c>
+      <c r="E14">
         <v>86333.179688000004</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0559284116331096</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="H14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J14" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1165,15 +1349,23 @@
       <c r="C15">
         <v>3.51</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
+        <f>(B15/C15)*100%</f>
+        <v>2.6324786324786329</v>
+      </c>
+      <c r="E15">
         <v>106405.335938</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6324786324786329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="H15" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J15" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1183,15 +1375,23 @@
       <c r="C16">
         <v>6.65</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
+        <f>(B16/C16)*100%</f>
+        <v>1.8060150375939847</v>
+      </c>
+      <c r="E16">
         <v>32009.023438</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8060150375939847</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="H16" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J16" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1201,15 +1401,23 @@
       <c r="C17">
         <v>5.57</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
+        <f>(B17/C17)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>361014.15625</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="H17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J17" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1219,15 +1427,23 @@
       <c r="C18">
         <v>5.73</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
+        <f>(B18/C18)*100%</f>
+        <v>0.99301919720767884</v>
+      </c>
+      <c r="E18">
         <v>32003.283202999999</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99301919720767884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="H18" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J18" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1237,15 +1453,23 @@
       <c r="C19">
         <v>7.56</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
+        <f>(B19/C19)*100%</f>
+        <v>0.99074074074074081</v>
+      </c>
+      <c r="E19">
         <v>32001.640625</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99074074074074081</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="H19" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1255,15 +1479,23 @@
       <c r="C20">
         <v>3.86</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
+        <f>(B20/C20)*100%</f>
+        <v>1.6113989637305699</v>
+      </c>
+      <c r="E20">
         <v>131072</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6113989637305699</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="H20" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1273,15 +1505,23 @@
       <c r="C21">
         <v>2.2400000000000002</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
+        <f>(B21/C21)*100%</f>
+        <v>1.03125</v>
+      </c>
+      <c r="E21">
         <v>344012.53125</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.03125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="H21" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1291,15 +1531,23 @@
       <c r="C22">
         <v>6.68</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
+        <f>(B22/C22)*100%</f>
+        <v>1.4101796407185629</v>
+      </c>
+      <c r="E22">
         <v>32003.283202999999</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4101796407185629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="H22" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J22" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1309,15 +1557,23 @@
       <c r="C23">
         <v>8.98</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
+        <f>(B23/C23)*100%</f>
+        <v>0.94988864142538965</v>
+      </c>
+      <c r="E23">
         <v>80000</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94988864142538965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="H23" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J23" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1327,15 +1583,23 @@
       <c r="C24">
         <v>11.08</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
+        <f>(B24/C24)*100%</f>
+        <v>1.8068592057761732</v>
+      </c>
+      <c r="E24">
         <v>32009.023438</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8068592057761732</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="H24" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J24" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1345,15 +1609,23 @@
       <c r="C25">
         <v>6.19</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
+        <f>(B25/C25)*100%</f>
+        <v>2.9693053311793212</v>
+      </c>
+      <c r="E25">
         <v>65538.5625</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9693053311793212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="H25" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1363,15 +1635,23 @@
       <c r="C26">
         <v>10.93</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
+        <f>(B26/C26)*100%</f>
+        <v>0.94053064958828902</v>
+      </c>
+      <c r="E26">
         <v>1055941.75</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
-        <v>0.94053064958828902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="H26" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1381,15 +1661,23 @@
       <c r="C27">
         <v>11.08</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
+        <f>(B27/C27)*100%</f>
+        <v>1.8059566787003611</v>
+      </c>
+      <c r="E27">
         <v>32009.023438</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8059566787003611</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="H27" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1399,15 +1687,23 @@
       <c r="C28">
         <v>5.47</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
+        <f>(B28/C28)*100%</f>
+        <v>2.0219378427787937</v>
+      </c>
+      <c r="E28">
         <v>272427.3125</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0219378427787937</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="H28" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1417,15 +1713,23 @@
       <c r="C29">
         <v>4.0199999999999996</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
+        <f>(B29/C29)*100%</f>
+        <v>0.99751243781094534</v>
+      </c>
+      <c r="E29">
         <v>64002.054687999997</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99751243781094534</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="H29" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1435,15 +1739,23 @@
       <c r="C30">
         <v>6.38</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
+        <f>(B30/C30)*100%</f>
+        <v>0.9890282131661442</v>
+      </c>
+      <c r="E30">
         <v>64001.640625</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9890282131661442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="H30" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1453,15 +1765,23 @@
       <c r="C31">
         <v>3.24</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
+        <f>(B31/C31)*100%</f>
+        <v>1.87037037037037</v>
+      </c>
+      <c r="E31">
         <v>32009.023438</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>1.87037037037037</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="H31" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1471,15 +1791,23 @@
       <c r="C32">
         <v>1.86</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
+        <f>(B32/C32)*100%</f>
+        <v>2.150537634408602</v>
+      </c>
+      <c r="E32">
         <v>361034.03125</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="0"/>
-        <v>2.150537634408602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="H32" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1489,15 +1817,23 @@
       <c r="C33">
         <v>1.85</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
+        <f>(B33/C33)*100%</f>
+        <v>2.1621621621621618</v>
+      </c>
+      <c r="E33">
         <v>361034.03125</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1621621621621618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="H33" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1507,15 +1843,23 @@
       <c r="C34">
         <v>9.9700000000000006</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
+        <f>(B34/C34)*100%</f>
+        <v>2.062186559679037</v>
+      </c>
+      <c r="E34">
         <v>32001.626952999999</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="0"/>
-        <v>2.062186559679037</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="H34" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1525,15 +1869,23 @@
       <c r="C35">
         <v>9.9700000000000006</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
+        <f>(B35/C35)*100%</f>
+        <v>2.062186559679037</v>
+      </c>
+      <c r="E35">
         <v>32001.626952999999</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="0"/>
-        <v>2.062186559679037</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="H35" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1543,15 +1895,23 @@
       <c r="C36">
         <v>2.2200000000000002</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
+        <f>(B36/C36)*100%</f>
+        <v>1.8018018018018016</v>
+      </c>
+      <c r="E36">
         <v>32009.023438</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="0"/>
-        <v>1.8018018018018016</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="H36" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1561,15 +1921,23 @@
       <c r="C37">
         <v>1.92</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
+        <f>(B37/C37)*100%</f>
+        <v>2.8229166666666665</v>
+      </c>
+      <c r="E37">
         <v>32127.939452999999</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8229166666666665</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1579,15 +1947,23 @@
       <c r="C38">
         <v>9.26</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
+        <f>(B38/C38)*100%</f>
+        <v>1.2278617710583153</v>
+      </c>
+      <c r="E38">
         <v>63983.308594000002</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2278617710583153</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="H38" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1597,15 +1973,32 @@
       <c r="C39">
         <v>8.11</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
+        <f>(B39/C39)*100%</f>
+        <v>1.2071516646115905</v>
+      </c>
+      <c r="E39">
         <v>231895.546875</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2071516646115905</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" t="s">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>7.19</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1279554937413072</v>
+      </c>
+      <c r="I39">
+        <v>6.14</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3208469055374592</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1615,15 +2008,23 @@
       <c r="C40">
         <v>7.5</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
+        <f>(B40/C40)*100%</f>
+        <v>1.0826666666666667</v>
+      </c>
+      <c r="E40">
         <v>32021.820312</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0826666666666667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="H40" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1633,15 +2034,32 @@
       <c r="C41">
         <v>4.17</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
+        <f>(B41/C41)*100%</f>
+        <v>1.0455635491606716</v>
+      </c>
+      <c r="E41">
         <v>2575497984</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0455635491606716</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" t="s">
+        <v>160</v>
+      </c>
+      <c r="G41">
+        <v>6.22</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67041800643086813</v>
+      </c>
+      <c r="I41">
+        <v>6.13</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68026101141924955</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1651,15 +2069,23 @@
       <c r="C42">
         <v>1.59</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
+        <f>(B42/C42)*100%</f>
+        <v>3.0628930817610063</v>
+      </c>
+      <c r="E42">
         <v>128037192</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="0"/>
-        <v>3.0628930817610063</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="H42" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J42" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1669,15 +2095,32 @@
       <c r="C43">
         <v>10.17</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
+        <f>(B43/C43)*100%</f>
+        <v>1.0009832841691249</v>
+      </c>
+      <c r="E43">
         <v>32000</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0009832841691249</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43">
+        <v>12.99</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.78290993071593529</v>
+      </c>
+      <c r="I43">
+        <v>12.19</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83429040196882698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1687,15 +2130,23 @@
       <c r="C44">
         <v>6.17</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
+        <f>(B44/C44)*100%</f>
+        <v>3.6401944894651543</v>
+      </c>
+      <c r="E44">
         <v>106405.335938</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="0"/>
-        <v>3.6401944894651543</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="H44" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J44" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1705,15 +2156,23 @@
       <c r="C45">
         <v>9.81</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
+        <f>(B45/C45)*100%</f>
+        <v>0.99184505606523954</v>
+      </c>
+      <c r="E45">
         <v>65536</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99184505606523954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="H45" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J45" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1723,15 +2182,23 @@
       <c r="C46">
         <v>14.34</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
+        <f>(B46/C46)*100%</f>
+        <v>0.99302649930264997</v>
+      </c>
+      <c r="E46">
         <v>32893.511719000002</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99302649930264997</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="H46" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J46" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1741,15 +2208,32 @@
       <c r="C47">
         <v>48.57</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
+        <f>(B47/C47)*100%</f>
+        <v>1.0883261272390363</v>
+      </c>
+      <c r="E47">
         <v>504937.40625</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0883261272390363</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" t="s">
+        <v>160</v>
+      </c>
+      <c r="G47">
+        <v>6.47</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5069551777434311</v>
+      </c>
+      <c r="I47">
+        <v>4.8</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="1"/>
+        <v>10.11875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1759,15 +2243,32 @@
       <c r="C48">
         <v>27.3</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
+        <f>(B48/C48)*100%</f>
+        <v>1.1424908424908424</v>
+      </c>
+      <c r="E48">
         <v>672224.75</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1424908424908424</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" t="s">
+        <v>160</v>
+      </c>
+      <c r="G48">
+        <v>6.01</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5424292845257908</v>
+      </c>
+      <c r="I48">
+        <v>3.46</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8901734104046248</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1777,15 +2278,32 @@
       <c r="C49">
         <v>12.4</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
+        <f>(B49/C49)*100%</f>
+        <v>3.8903225806451611</v>
+      </c>
+      <c r="E49">
         <v>41319268</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8903225806451611</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49">
+        <v>14.18</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.87447108603667145</v>
+      </c>
+      <c r="I49">
+        <v>12.12</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0231023102310233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1795,15 +2313,32 @@
       <c r="C50">
         <v>16.54</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
+        <f>(B50/C50)*100%</f>
+        <v>1.1964933494558645</v>
+      </c>
+      <c r="E50">
         <v>64000</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="0"/>
-        <v>1.1964933494558645</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50">
+        <v>23.56</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70203735144312396</v>
+      </c>
+      <c r="I50">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80999020568070512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1813,15 +2348,23 @@
       <c r="C51">
         <v>1.53</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
+        <f>(B51/C51)*100%</f>
+        <v>0.98692810457516333</v>
+      </c>
+      <c r="E51">
         <v>1535966336</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="0"/>
-        <v>0.98692810457516333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="H51" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J51" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1831,15 +2374,32 @@
       <c r="C52">
         <v>10.19</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
+        <f>(B52/C52)*100%</f>
+        <v>1.323846908734053</v>
+      </c>
+      <c r="E52">
         <v>1556541.25</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="0"/>
-        <v>1.323846908734053</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52">
+        <v>12.09</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="0"/>
+        <v>0.84284532671629442</v>
+      </c>
+      <c r="I52">
+        <v>11.53</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88378143972246315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1849,15 +2409,32 @@
       <c r="C53">
         <v>10.24</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
+        <f>(B53/C53)*100%</f>
+        <v>1.119140625</v>
+      </c>
+      <c r="E53">
         <v>76228.078125</v>
       </c>
-      <c r="F53" s="1">
-        <f t="shared" si="0"/>
-        <v>1.119140625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+      <c r="G53">
+        <v>10.87</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94204231830726781</v>
+      </c>
+      <c r="I53">
+        <v>10.11</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0128585558852623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1867,15 +2444,32 @@
       <c r="C54">
         <v>9.26</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
+        <f>(B54/C54)*100%</f>
+        <v>1.0064794816414688</v>
+      </c>
+      <c r="E54">
         <v>95998</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0064794816414688</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="F54" t="s">
+        <v>160</v>
+      </c>
+      <c r="G54">
+        <v>13.54</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68389955686853765</v>
+      </c>
+      <c r="I54">
+        <v>9.27</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99892125134843579</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1885,15 +2479,32 @@
       <c r="C55">
         <v>5.0199999999999996</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
+        <f>(B55/C55)*100%</f>
+        <v>1.4143426294820718</v>
+      </c>
+      <c r="E55">
         <v>64000</v>
       </c>
-      <c r="F55" s="1">
-        <f t="shared" si="0"/>
-        <v>1.4143426294820718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G55">
+        <v>7.38</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68021680216802161</v>
+      </c>
+      <c r="I55">
+        <v>6.83</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73499267935578327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1903,15 +2514,32 @@
       <c r="C56">
         <v>25.15</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
+        <f>(B56/C56)*100%</f>
+        <v>1.0015904572564613</v>
+      </c>
+      <c r="E56">
         <v>32004.367188</v>
       </c>
-      <c r="F56" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0015904572564613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56">
+        <v>23.47</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="0"/>
+        <v>1.0715807413719642</v>
+      </c>
+      <c r="I56">
+        <v>17.79</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4137155705452502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1921,15 +2549,32 @@
       <c r="C57">
         <v>21.26</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
+        <f>(B57/C57)*100%</f>
+        <v>2.1128880526810914</v>
+      </c>
+      <c r="E57">
         <v>800001.8125</v>
       </c>
-      <c r="F57" s="1">
-        <f t="shared" si="0"/>
-        <v>2.1128880526810914</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="F57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G57">
+        <v>35.35</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60141442715700144</v>
+      </c>
+      <c r="I57">
+        <v>26.53</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.80135695439125521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -1939,15 +2584,32 @@
       <c r="C58">
         <v>9.02</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
+        <f>(B58/C58)*100%</f>
+        <v>1.2527716186252773</v>
+      </c>
+      <c r="E58">
         <v>2.635389</v>
       </c>
-      <c r="F58" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2527716186252773</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="F58" t="s">
+        <v>159</v>
+      </c>
+      <c r="G58">
+        <v>9.1</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.99120879120879124</v>
+      </c>
+      <c r="I58">
+        <v>6.9</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3072463768115941</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1957,15 +2619,26 @@
       <c r="C59">
         <v>16.12</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
+        <f>(B59/C59)*100%</f>
+        <v>0.68424317617865993</v>
+      </c>
+      <c r="E59">
         <v>12.59558</v>
       </c>
-      <c r="F59" s="1">
-        <f t="shared" si="0"/>
-        <v>0.68424317617865993</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="F59" t="s">
+        <v>161</v>
+      </c>
+      <c r="H59" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J59" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -1975,15 +2648,32 @@
       <c r="C60">
         <v>5.78</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
+        <f>(B60/C60)*100%</f>
+        <v>0.99307958477508651</v>
+      </c>
+      <c r="E60">
         <v>63999</v>
       </c>
-      <c r="F60" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99307958477508651</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="F60" t="s">
+        <v>159</v>
+      </c>
+      <c r="G60">
+        <v>5.68</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
+        <v>1.017605633802817</v>
+      </c>
+      <c r="I60">
+        <v>3.42</v>
+      </c>
+      <c r="J60" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6900584795321638</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -1993,15 +2683,29 @@
       <c r="C61">
         <v>8.65</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
+        <f>(B61/C61)*100%</f>
+        <v>0.99537572254335249</v>
+      </c>
+      <c r="E61">
         <v>6401609728</v>
       </c>
-      <c r="F61" s="1">
-        <f t="shared" si="0"/>
-        <v>0.99537572254335249</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I61">
+        <v>9.84</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87906504065040658</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -2011,15 +2715,32 @@
       <c r="C62">
         <v>22.32</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
+        <f>(B62/C62)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E62">
         <v>32000</v>
       </c>
-      <c r="F62" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62">
+        <v>29.69</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
+        <v>0.75176827214550357</v>
+      </c>
+      <c r="I62">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2591093117408905</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -2029,15 +2750,33 @@
       <c r="C63">
         <v>7.52</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
+        <f>(B63/C63)*100%</f>
+        <v>1.0345744680851066</v>
+      </c>
+      <c r="E63">
         <v>31953.501952999999</v>
       </c>
-      <c r="F63" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0345744680851066</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" t="s">
+        <v>159</v>
+      </c>
+      <c r="G63">
+        <v>10.41</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>0.72238232468780017</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4321702410593031</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2507724182551367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -2047,15 +2786,23 @@
       <c r="C64">
         <v>6.4</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
+        <f>(B64/C64)*100%</f>
+        <v>1.046875</v>
+      </c>
+      <c r="E64">
         <v>162944</v>
       </c>
-      <c r="F64" s="1">
-        <f t="shared" si="0"/>
-        <v>1.046875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="H64" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -2065,15 +2812,23 @@
       <c r="C65">
         <v>2.08</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
+        <f>(B65/C65)*100%</f>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="E65">
         <v>163072</v>
       </c>
-      <c r="F65" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0384615384615385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="H65" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -2083,15 +2838,32 @@
       <c r="C66">
         <v>1.0900000000000001</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
+        <f>(B66/C66)*100%</f>
+        <v>1.2844036697247705</v>
+      </c>
+      <c r="E66">
         <v>1398.598389</v>
       </c>
-      <c r="F66" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2844036697247705</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="F66" t="s">
+        <v>162</v>
+      </c>
+      <c r="G66">
+        <v>6.51</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1674347158218126</v>
+      </c>
+      <c r="I66">
+        <v>0.85</v>
+      </c>
+      <c r="J66" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2823529411764707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -2101,15 +2873,32 @@
       <c r="C67">
         <v>8.06</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
+        <f>(B67/C67)*100%</f>
+        <v>1.001240694789082</v>
+      </c>
+      <c r="E67">
         <v>1388.0904539999999</v>
       </c>
-      <c r="F67" s="1">
-        <f t="shared" ref="F67:F130" si="1">(B67/C67)*100%</f>
-        <v>1.001240694789082</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67" t="s">
+        <v>160</v>
+      </c>
+      <c r="G67">
+        <v>7.02</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:J130" si="2">(C67/G67)*100%</f>
+        <v>1.1481481481481484</v>
+      </c>
+      <c r="I67">
+        <v>6.06</v>
+      </c>
+      <c r="J67" s="1">
+        <f t="shared" ref="J67:J130" si="3">(C67/I67)*100%</f>
+        <v>1.3300330033003303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -2119,15 +2908,29 @@
       <c r="C68">
         <v>24.56</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
+        <f>(B68/C68)*100%</f>
+        <v>0.99755700325732899</v>
+      </c>
+      <c r="E68">
         <v>1346302.125</v>
       </c>
-      <c r="F68" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99755700325732899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68" t="s">
+        <v>159</v>
+      </c>
+      <c r="H68" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I68">
+        <v>15.82</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5524652338811631</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -2137,15 +2940,29 @@
       <c r="C69">
         <v>10.08</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
+        <f>(B69/C69)*100%</f>
+        <v>1.1785714285714286</v>
+      </c>
+      <c r="E69">
         <v>722068.0625</v>
       </c>
-      <c r="F69" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1785714285714286</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69" t="s">
+        <v>162</v>
+      </c>
+      <c r="H69" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I69">
+        <v>7.28</v>
+      </c>
+      <c r="J69" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3846153846153846</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -2155,15 +2972,29 @@
       <c r="C70">
         <v>9.85</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
+        <f>(B70/C70)*100%</f>
+        <v>1.0040609137055838</v>
+      </c>
+      <c r="E70">
         <v>102115.0625</v>
       </c>
-      <c r="F70" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0040609137055838</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" t="s">
+        <v>162</v>
+      </c>
+      <c r="H70" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I70">
+        <v>7.54</v>
+      </c>
+      <c r="J70" s="1">
+        <f t="shared" si="3"/>
+        <v>1.306366047745358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -2173,15 +3004,29 @@
       <c r="C71">
         <v>9.5399999999999991</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
+        <f>(B71/C71)*100%</f>
+        <v>1.237945492662474</v>
+      </c>
+      <c r="E71">
         <v>6402028544</v>
       </c>
-      <c r="F71" s="1">
-        <f t="shared" si="1"/>
-        <v>1.237945492662474</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H71" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I71">
+        <v>10.49</v>
+      </c>
+      <c r="J71" s="1">
+        <f t="shared" si="3"/>
+        <v>0.90943755958055283</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -2191,15 +3036,29 @@
       <c r="C72">
         <v>3.12</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
+        <f>(B72/C72)*100%</f>
+        <v>1.0673076923076923</v>
+      </c>
+      <c r="E72">
         <v>65536</v>
       </c>
-      <c r="F72" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0673076923076923</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" t="s">
+        <v>160</v>
+      </c>
+      <c r="H72" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J72" s="1">
+        <f t="shared" si="3"/>
+        <v>10.758620689655174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -2209,15 +3068,32 @@
       <c r="C73">
         <v>7.92</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
+        <f>(B73/C73)*100%</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E73">
         <v>65536</v>
       </c>
-      <c r="F73" s="1">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" t="s">
+        <v>160</v>
+      </c>
+      <c r="G73">
+        <v>7.11</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1139240506329113</v>
+      </c>
+      <c r="I73">
+        <v>5.69</v>
+      </c>
+      <c r="J73" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3919156414762741</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -2227,15 +3103,26 @@
       <c r="C74">
         <v>24.22</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
+        <f>(B74/C74)*100%</f>
+        <v>1.0066061106523534</v>
+      </c>
+      <c r="E74">
         <v>1346302.125</v>
       </c>
-      <c r="F74" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0066061106523534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J74" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -2245,15 +3132,23 @@
       <c r="C75">
         <v>3.71</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
+        <f>(B75/C75)*100%</f>
+        <v>0.99730458221024265</v>
+      </c>
+      <c r="E75">
         <v>32000</v>
       </c>
-      <c r="F75" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99730458221024265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="H75" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J75" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -2263,15 +3158,23 @@
       <c r="C76">
         <v>10.14</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
+        <f>(B76/C76)*100%</f>
+        <v>0.99309664694280075</v>
+      </c>
+      <c r="E76">
         <v>64012.589844000002</v>
       </c>
-      <c r="F76" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99309664694280075</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="H76" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J76" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -2281,15 +3184,23 @@
       <c r="C77">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
+        <f>(B77/C77)*100%</f>
+        <v>0.98431372549019602</v>
+      </c>
+      <c r="E77">
         <v>64014.289062000003</v>
       </c>
-      <c r="F77" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98431372549019602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="H77" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J77" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2299,15 +3210,23 @@
       <c r="C78">
         <v>6.87</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
+        <f>(B78/C78)*100%</f>
+        <v>0.99854439592430866</v>
+      </c>
+      <c r="E78">
         <v>361018.59375</v>
       </c>
-      <c r="F78" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99854439592430866</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="H78" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J78" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2317,15 +3236,23 @@
       <c r="C79">
         <v>4.8099999999999996</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
+        <f>(B79/C79)*100%</f>
+        <v>1.1850311850311852</v>
+      </c>
+      <c r="E79">
         <v>96003.28125</v>
       </c>
-      <c r="F79" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1850311850311852</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="H79" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J79" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -2335,15 +3262,29 @@
       <c r="C80">
         <v>30.26</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
+        <f>(B80/C80)*100%</f>
+        <v>0.99570389953734295</v>
+      </c>
+      <c r="E80">
         <v>1346302.125</v>
       </c>
-      <c r="F80" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99570389953734295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I80">
+        <v>18.5</v>
+      </c>
+      <c r="J80" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6356756756756758</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -2353,15 +3294,29 @@
       <c r="C81">
         <v>24.66</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
+        <f>(B81/C81)*100%</f>
+        <v>0.99513381995133821</v>
+      </c>
+      <c r="E81">
         <v>546213.5625</v>
       </c>
-      <c r="F81" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99513381995133821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H81" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I81">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="J81" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3373101952277657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -2371,15 +3326,23 @@
       <c r="C82">
         <v>8.61</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
+        <f>(B82/C82)*100%</f>
+        <v>0.98373983739837412</v>
+      </c>
+      <c r="E82">
         <v>32000</v>
       </c>
-      <c r="F82" s="1">
-        <f t="shared" si="1"/>
-        <v>0.98373983739837412</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="H82" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J82" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -2389,15 +3352,32 @@
       <c r="C83">
         <v>21.89</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="1">
+        <f>(B83/C83)*100%</f>
+        <v>2.348104157149383</v>
+      </c>
+      <c r="E83" t="s">
         <v>87</v>
       </c>
-      <c r="F83" s="1">
-        <f t="shared" si="1"/>
-        <v>2.348104157149383</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G83">
+        <v>51.47</v>
+      </c>
+      <c r="H83" s="1">
+        <f t="shared" si="2"/>
+        <v>0.42529628910044687</v>
+      </c>
+      <c r="I83">
+        <v>27.19</v>
+      </c>
+      <c r="J83" s="1">
+        <f t="shared" si="3"/>
+        <v>0.8050753953659433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2407,15 +3387,23 @@
       <c r="C84">
         <v>11.16</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
+        <f>(B84/C84)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E84">
         <v>32000</v>
       </c>
-      <c r="F84" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="H84" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J84" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2425,15 +3413,23 @@
       <c r="C85">
         <v>7.51</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
+        <f>(B85/C85)*100%</f>
+        <v>1.0359520639147803</v>
+      </c>
+      <c r="E85">
         <v>31953.501952999999</v>
       </c>
-      <c r="F85" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0359520639147803</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="H85" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J85" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2443,15 +3439,26 @@
       <c r="C86">
         <v>14.8</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
+        <f>(B86/C86)*100%</f>
+        <v>1.0006756756756756</v>
+      </c>
+      <c r="E86">
         <v>32000</v>
       </c>
-      <c r="F86" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0006756756756756</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" t="s">
+        <v>162</v>
+      </c>
+      <c r="H86" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J86" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2461,15 +3468,26 @@
       <c r="C87">
         <v>1.52</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
+        <f>(B87/C87)*100%</f>
+        <v>0.90131578947368429</v>
+      </c>
+      <c r="E87">
         <v>3339663.25</v>
       </c>
-      <c r="F87" s="1">
-        <f t="shared" si="1"/>
-        <v>0.90131578947368429</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" t="s">
+        <v>159</v>
+      </c>
+      <c r="H87" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J87" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2479,15 +3497,26 @@
       <c r="C88">
         <v>15.45</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
+        <f>(B88/C88)*100%</f>
+        <v>0.99546925566343047</v>
+      </c>
+      <c r="E88">
         <v>256</v>
       </c>
-      <c r="F88" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99546925566343047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2497,15 +3526,23 @@
       <c r="C89">
         <v>6.06</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
+        <f>(B89/C89)*100%</f>
+        <v>0.71782178217821779</v>
+      </c>
+      <c r="E89">
         <v>3</v>
       </c>
-      <c r="F89" s="1">
-        <f t="shared" si="1"/>
-        <v>0.71782178217821779</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="H89" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J89" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2515,15 +3552,23 @@
       <c r="C90">
         <v>13.84</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
+        <f>(B90/C90)*100%</f>
+        <v>4.0065028901734108</v>
+      </c>
+      <c r="E90">
         <v>10.950721</v>
       </c>
-      <c r="F90" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0065028901734108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="H90" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J90" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2533,15 +3578,23 @@
       <c r="C91">
         <v>5.33</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
+        <f>(B91/C91)*100%</f>
+        <v>0.99812382739212013</v>
+      </c>
+      <c r="E91">
         <v>10.950721</v>
       </c>
-      <c r="F91" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99812382739212013</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="H91" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J91" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2551,15 +3604,23 @@
       <c r="C92">
         <v>18.46</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
+        <f>(B92/C92)*100%</f>
+        <v>4.0037919826652217</v>
+      </c>
+      <c r="E92">
         <v>1.030518</v>
       </c>
-      <c r="F92" s="1">
-        <f t="shared" si="1"/>
-        <v>4.0037919826652217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="H92" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J92" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>97</v>
       </c>
@@ -2569,15 +3630,23 @@
       <c r="C93">
         <v>8.23</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
+        <f>(B93/C93)*100%</f>
+        <v>3.3936816524908866</v>
+      </c>
+      <c r="E93">
         <v>1.644725</v>
       </c>
-      <c r="F93" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3936816524908866</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="H93" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J93" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>98</v>
       </c>
@@ -2587,15 +3656,23 @@
       <c r="C94">
         <v>36.979999999999997</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
+        <f>(B94/C94)*100%</f>
+        <v>1.0021633315305571</v>
+      </c>
+      <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0021633315305571</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="H94" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J94" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>99</v>
       </c>
@@ -2605,15 +3682,23 @@
       <c r="C95">
         <v>5.56</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
+        <f>(B95/C95)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E95">
         <v>54857</v>
       </c>
-      <c r="F95" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="H95" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J95" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -2623,15 +3708,23 @@
       <c r="C96">
         <v>36.97</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
+        <f>(B96/C96)*100%</f>
+        <v>1.0016229375169057</v>
+      </c>
+      <c r="E96">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="F96" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0016229375169057</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="H96" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J96" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>101</v>
       </c>
@@ -2641,15 +3734,23 @@
       <c r="C97">
         <v>371.16</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
+        <f>(B97/C97)*100%</f>
+        <v>1.010265114775299</v>
+      </c>
+      <c r="E97">
         <v>0</v>
       </c>
-      <c r="F97" s="1">
-        <f t="shared" si="1"/>
-        <v>1.010265114775299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="H97" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J97" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -2659,15 +3760,23 @@
       <c r="C98">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
+        <f>(B98/C98)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E98">
         <v>32002</v>
       </c>
-      <c r="F98" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="H98" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J98" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
         <v>103</v>
       </c>
@@ -2677,15 +3786,23 @@
       <c r="C99">
         <v>13.16</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
+        <f>(B99/C99)*100%</f>
+        <v>1.5455927051671732</v>
+      </c>
+      <c r="E99">
         <v>43.802883000000001</v>
       </c>
-      <c r="F99" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5455927051671732</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J99" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -2695,15 +3812,23 @@
       <c r="C100">
         <v>8.8800000000000008</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
+        <f>(B100/C100)*100%</f>
+        <v>0.52139639639639634</v>
+      </c>
+      <c r="E100">
         <v>514</v>
       </c>
-      <c r="F100" s="1">
-        <f t="shared" si="1"/>
-        <v>0.52139639639639634</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="H100" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J100" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -2713,15 +3838,23 @@
       <c r="C101">
         <v>5.92</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
+        <f>(B101/C101)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E101">
         <v>4</v>
       </c>
-      <c r="F101" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="H101" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J101" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
         <v>106</v>
       </c>
@@ -2731,15 +3864,23 @@
       <c r="C102">
         <v>7.4</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
+        <f>(B102/C102)*100%</f>
+        <v>0.37702702702702701</v>
+      </c>
+      <c r="E102">
         <v>10.950721</v>
       </c>
-      <c r="F102" s="1">
-        <f t="shared" si="1"/>
-        <v>0.37702702702702701</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="H102" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J102" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
         <v>107</v>
       </c>
@@ -2749,15 +3890,23 @@
       <c r="C103">
         <v>5.55</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
+        <f>(B103/C103)*100%</f>
+        <v>1.0018018018018018</v>
+      </c>
+      <c r="E103">
         <v>52619.914062000003</v>
       </c>
-      <c r="F103" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0018018018018018</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="H103" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J103" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
         <v>108</v>
       </c>
@@ -2767,15 +3916,23 @@
       <c r="C104">
         <v>44.39</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
+        <f>(B104/C104)*100%</f>
+        <v>1.001802207704438</v>
+      </c>
+      <c r="E104">
         <v>2</v>
       </c>
-      <c r="F104" s="1">
-        <f t="shared" si="1"/>
-        <v>1.001802207704438</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="H104" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J104" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
         <v>109</v>
       </c>
@@ -2785,15 +3942,23 @@
       <c r="C105">
         <v>12.94</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
+        <f>(B105/C105)*100%</f>
+        <v>0.99922720247295216</v>
+      </c>
+      <c r="E105">
         <v>32000</v>
       </c>
-      <c r="F105" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99922720247295216</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="H105" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J105" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
         <v>110</v>
       </c>
@@ -2803,15 +3968,23 @@
       <c r="C106">
         <v>7.87</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
+        <f>(B106/C106)*100%</f>
+        <v>1</v>
+      </c>
+      <c r="E106">
         <v>32000</v>
       </c>
-      <c r="F106" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="H106" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J106" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
         <v>111</v>
       </c>
@@ -2821,15 +3994,23 @@
       <c r="C107">
         <v>5.7</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
+        <f>(B107/C107)*100%</f>
+        <v>1.0087719298245614</v>
+      </c>
+      <c r="E107">
         <v>146472.4375</v>
       </c>
-      <c r="F107" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0087719298245614</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="H107" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J107" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
         <v>112</v>
       </c>
@@ -2839,15 +4020,23 @@
       <c r="C108">
         <v>5.55</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
+        <f>(B108/C108)*100%</f>
+        <v>1.0018018018018018</v>
+      </c>
+      <c r="E108">
         <v>32000</v>
       </c>
-      <c r="F108" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0018018018018018</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="H108" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J108" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
         <v>113</v>
       </c>
@@ -2857,15 +4046,23 @@
       <c r="C109">
         <v>5.55</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
+        <f>(B109/C109)*100%</f>
+        <v>1.0018018018018018</v>
+      </c>
+      <c r="E109">
         <v>2</v>
       </c>
-      <c r="F109" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0018018018018018</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="H109" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J109" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -2875,15 +4072,23 @@
       <c r="C110">
         <v>7.41</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
+        <f>(B110/C110)*100%</f>
+        <v>1.001349527665317</v>
+      </c>
+      <c r="E110">
         <v>10.950721</v>
       </c>
-      <c r="F110" s="1">
-        <f t="shared" si="1"/>
-        <v>1.001349527665317</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="H110" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J110" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
         <v>115</v>
       </c>
@@ -2893,15 +4098,23 @@
       <c r="C111">
         <v>7.42</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
+        <f>(B111/C111)*100%</f>
+        <v>1.0040431266846361</v>
+      </c>
+      <c r="E111">
         <v>10.950721</v>
       </c>
-      <c r="F111" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0040431266846361</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="H111" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J111" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
         <v>116</v>
       </c>
@@ -2911,15 +4124,23 @@
       <c r="C112">
         <v>1.74</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
+        <f>(B112/C112)*100%</f>
+        <v>1.1551724137931034</v>
+      </c>
+      <c r="E112">
         <v>1567.8428960000001</v>
       </c>
-      <c r="F112" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1551724137931034</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="H112" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J112" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" t="s">
         <v>117</v>
       </c>
@@ -2929,15 +4150,26 @@
       <c r="C113">
         <v>14.23</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
+        <f>(B113/C113)*100%</f>
+        <v>2.2543921293042866</v>
+      </c>
+      <c r="E113">
         <v>51213414400</v>
       </c>
-      <c r="F113" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2543921293042866</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="F113" t="s">
+        <v>160</v>
+      </c>
+      <c r="H113" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J113" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" t="s">
         <v>118</v>
       </c>
@@ -2947,15 +4179,23 @@
       <c r="C114">
         <v>20.309999999999999</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
+        <f>(B114/C114)*100%</f>
+        <v>1.7552929591334319</v>
+      </c>
+      <c r="E114">
         <v>32008.869140999999</v>
       </c>
-      <c r="F114" s="1">
-        <f t="shared" si="1"/>
-        <v>1.7552929591334319</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="H114" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J114" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" t="s">
         <v>119</v>
       </c>
@@ -2965,15 +4205,26 @@
       <c r="C115">
         <v>31.9</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
+        <f>(B115/C115)*100%</f>
+        <v>1.0018808777429469</v>
+      </c>
+      <c r="E115">
         <v>1.644841</v>
       </c>
-      <c r="F115" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0018808777429469</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="F115" t="s">
+        <v>159</v>
+      </c>
+      <c r="H115" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J115" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" t="s">
         <v>120</v>
       </c>
@@ -2983,15 +4234,23 @@
       <c r="C116">
         <v>6.05</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
+        <f>(B116/C116)*100%</f>
+        <v>1.0082644628099173</v>
+      </c>
+      <c r="E116">
         <v>6401676800</v>
       </c>
-      <c r="F116" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0082644628099173</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="H116" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J116" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" t="s">
         <v>121</v>
       </c>
@@ -3001,15 +4260,23 @@
       <c r="C117">
         <v>9.14</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
+        <f>(B117/C117)*100%</f>
+        <v>2.4420131291028446</v>
+      </c>
+      <c r="E117">
         <v>32009.023438</v>
       </c>
-      <c r="F117" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4420131291028446</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="H117" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J117" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" t="s">
         <v>122</v>
       </c>
@@ -3019,15 +4286,23 @@
       <c r="C118">
         <v>8.69</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
+        <f>(B118/C118)*100%</f>
+        <v>2.5615650172612203</v>
+      </c>
+      <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5615650172612203</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="H118" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J118" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" t="s">
         <v>123</v>
       </c>
@@ -3037,15 +4312,23 @@
       <c r="C119">
         <v>46.3</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
+        <f>(B119/C119)*100%</f>
+        <v>0.99870410367170637</v>
+      </c>
+      <c r="E119">
         <v>5079.8647460000002</v>
       </c>
-      <c r="F119" s="1">
-        <f t="shared" si="1"/>
-        <v>0.99870410367170637</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="H119" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J119" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" t="s">
         <v>124</v>
       </c>
@@ -3055,15 +4338,23 @@
       <c r="C120">
         <v>10.18</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
+        <f>(B120/C120)*100%</f>
+        <v>2.2534381139489197</v>
+      </c>
+      <c r="E120">
         <v>32000.683593999998</v>
       </c>
-      <c r="F120" s="1">
-        <f t="shared" si="1"/>
-        <v>2.2534381139489197</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="H120" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J120" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" t="s">
         <v>125</v>
       </c>
@@ -3073,15 +4364,23 @@
       <c r="C121">
         <v>7.96</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
+        <f>(B121/C121)*100%</f>
+        <v>2.7939698492462308</v>
+      </c>
+      <c r="E121">
         <v>32818.730469000002</v>
       </c>
-      <c r="F121" s="1">
-        <f t="shared" si="1"/>
-        <v>2.7939698492462308</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="H121" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J121" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -3091,15 +4390,26 @@
       <c r="C122">
         <v>18.510000000000002</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
+        <f>(B122/C122)*100%</f>
+        <v>2.1615343057806586</v>
+      </c>
+      <c r="E122">
         <v>3313578</v>
       </c>
-      <c r="F122" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1615343057806586</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="F122" t="s">
+        <v>162</v>
+      </c>
+      <c r="H122" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J122" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" t="s">
         <v>127</v>
       </c>
@@ -3109,15 +4419,26 @@
       <c r="C123">
         <v>8.6</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
+        <f>(B123/C123)*100%</f>
+        <v>1.0011627906976743</v>
+      </c>
+      <c r="E123">
         <v>361034.03125</v>
       </c>
-      <c r="F123" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0011627906976743</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" t="s">
+        <v>160</v>
+      </c>
+      <c r="H123" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J123" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" t="s">
         <v>128</v>
       </c>
@@ -3127,15 +4448,23 @@
       <c r="C124">
         <v>5.76</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
+        <f>(B124/C124)*100%</f>
+        <v>1.0347222222222223</v>
+      </c>
+      <c r="E124">
         <v>196500.265625</v>
       </c>
-      <c r="F124" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0347222222222223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="H124" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J124" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -3145,15 +4474,23 @@
       <c r="C125">
         <v>12.1</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
+        <f>(B125/C125)*100%</f>
+        <v>1.0115702479338844</v>
+      </c>
+      <c r="E125">
         <v>689788.5625</v>
       </c>
-      <c r="F125" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0115702479338844</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="H125" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J125" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" t="s">
         <v>130</v>
       </c>
@@ -3163,15 +4500,26 @@
       <c r="C126">
         <v>19.46</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
+        <f>(B126/C126)*100%</f>
+        <v>1.0621788283658788</v>
+      </c>
+      <c r="E126">
         <v>32007.896484000001</v>
       </c>
-      <c r="F126" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0621788283658788</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="F126" t="s">
+        <v>162</v>
+      </c>
+      <c r="H126" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J126" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" t="s">
         <v>131</v>
       </c>
@@ -3181,15 +4529,26 @@
       <c r="C127">
         <v>11.2</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
+        <f>(B127/C127)*100%</f>
+        <v>6.6044642857142861</v>
+      </c>
+      <c r="E127">
         <v>32511.939452999999</v>
       </c>
-      <c r="F127" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6044642857142861</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="F127" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J127" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" t="s">
         <v>132</v>
       </c>
@@ -3199,15 +4558,26 @@
       <c r="C128">
         <v>11.11</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
+        <f>(B128/C128)*100%</f>
+        <v>1.0027002700270029</v>
+      </c>
+      <c r="E128">
         <v>21.901441999999999</v>
       </c>
-      <c r="F128" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0027002700270029</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="F128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H128" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J128" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
         <v>133</v>
       </c>
@@ -3217,15 +4587,23 @@
       <c r="C129">
         <v>5.04</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
+        <f>(B129/C129)*100%</f>
+        <v>1.2956349206349207</v>
+      </c>
+      <c r="E129">
         <v>64004.925780999998</v>
       </c>
-      <c r="F129" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2956349206349207</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="H129" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
         <v>134</v>
       </c>
@@ -3235,15 +4613,23 @@
       <c r="C130">
         <v>8</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
+        <f>(B130/C130)*100%</f>
+        <v>1.0062500000000001</v>
+      </c>
+      <c r="E130">
         <v>361034.03125</v>
       </c>
-      <c r="F130" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0062500000000001</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="H130" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J130" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
         <v>135</v>
       </c>
@@ -3253,15 +4639,23 @@
       <c r="C131">
         <v>7.59</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
+        <f>(B131/C131)*100%</f>
+        <v>1.0026350461133071</v>
+      </c>
+      <c r="E131">
         <v>361034.03125</v>
       </c>
-      <c r="F131" s="1">
-        <f t="shared" ref="F131:F152" si="2">(B131/C131)*100%</f>
-        <v>1.0026350461133071</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="H131" s="1" t="e">
+        <f t="shared" ref="H131:J152" si="4">(C131/G131)*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J131" s="1" t="e">
+        <f t="shared" ref="J131:J152" si="5">(C131/I131)*100%</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -3271,15 +4665,26 @@
       <c r="C132">
         <v>8.1300000000000008</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
+        <f>(B132/C132)*100%</f>
+        <v>1.0061500615006149</v>
+      </c>
+      <c r="E132">
         <v>32001.640625</v>
       </c>
-      <c r="F132" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0061500615006149</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="F132" t="s">
+        <v>162</v>
+      </c>
+      <c r="H132" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J132" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" t="s">
         <v>137</v>
       </c>
@@ -3289,15 +4694,26 @@
       <c r="C133">
         <v>6.22</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
+        <f>(B133/C133)*100%</f>
+        <v>1.0112540192926045</v>
+      </c>
+      <c r="E133">
         <v>2221950.5</v>
       </c>
-      <c r="F133" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0112540192926045</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="F133" t="s">
+        <v>162</v>
+      </c>
+      <c r="H133" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J133" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" t="s">
         <v>138</v>
       </c>
@@ -3307,15 +4723,26 @@
       <c r="C134">
         <v>6.49</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
+        <f>(B134/C134)*100%</f>
+        <v>1.0046224961479198</v>
+      </c>
+      <c r="E134">
         <v>32001.640625</v>
       </c>
-      <c r="F134" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0046224961479198</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="F134" t="s">
+        <v>162</v>
+      </c>
+      <c r="H134" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J134" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" t="s">
         <v>139</v>
       </c>
@@ -3325,15 +4752,23 @@
       <c r="C135">
         <v>8.43</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
+        <f>(B135/C135)*100%</f>
+        <v>1.01067615658363</v>
+      </c>
+      <c r="E135">
         <v>32000</v>
       </c>
-      <c r="F135" s="1">
-        <f t="shared" si="2"/>
-        <v>1.01067615658363</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="H135" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J135" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" t="s">
         <v>140</v>
       </c>
@@ -3343,15 +4778,23 @@
       <c r="C136">
         <v>6.2</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
+        <f>(B136/C136)*100%</f>
+        <v>1.0096774193548386</v>
+      </c>
+      <c r="E136">
         <v>1.0386359999999999</v>
       </c>
-      <c r="F136" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0096774193548386</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="H136" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J136" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -3361,15 +4804,23 @@
       <c r="C137">
         <v>4.6100000000000003</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
+        <f>(B137/C137)*100%</f>
+        <v>1.0043383947939262</v>
+      </c>
+      <c r="E137">
         <v>4.0034E-2</v>
       </c>
-      <c r="F137" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0043383947939262</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="H137" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J137" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -3379,15 +4830,23 @@
       <c r="C138">
         <v>7.51</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
+        <f>(B138/C138)*100%</f>
+        <v>1.007989347536618</v>
+      </c>
+      <c r="E138">
         <v>32002.205077999999</v>
       </c>
-      <c r="F138" s="1">
-        <f t="shared" si="2"/>
-        <v>1.007989347536618</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="H138" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J138" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -3397,15 +4856,23 @@
       <c r="C139">
         <v>2.9</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
+        <f>(B139/C139)*100%</f>
+        <v>2.1068965517241383</v>
+      </c>
+      <c r="E139">
         <v>361034.03125</v>
       </c>
-      <c r="F139" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1068965517241383</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="H139" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J139" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" t="s">
         <v>144</v>
       </c>
@@ -3415,15 +4882,26 @@
       <c r="C140">
         <v>13.42</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
+        <f>(B140/C140)*100%</f>
+        <v>2.7682563338301041</v>
+      </c>
+      <c r="E140">
         <v>1.644725</v>
       </c>
-      <c r="F140" s="1">
-        <f t="shared" si="2"/>
-        <v>2.7682563338301041</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="F140" t="s">
+        <v>159</v>
+      </c>
+      <c r="H140" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J140" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -3433,15 +4911,26 @@
       <c r="C141">
         <v>9.06</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
+        <f>(B141/C141)*100%</f>
+        <v>1.0386313465783663</v>
+      </c>
+      <c r="E141">
         <v>1.644725</v>
       </c>
-      <c r="F141" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0386313465783663</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="F141" t="s">
+        <v>162</v>
+      </c>
+      <c r="H141" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J141" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" t="s">
         <v>146</v>
       </c>
@@ -3451,15 +4940,26 @@
       <c r="C142">
         <v>11.19</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
+        <f>(B142/C142)*100%</f>
+        <v>1.0071492403932083</v>
+      </c>
+      <c r="E142">
         <v>1.644725</v>
       </c>
-      <c r="F142" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0071492403932083</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="F142" t="s">
+        <v>162</v>
+      </c>
+      <c r="H142" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J142" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" t="s">
         <v>147</v>
       </c>
@@ -3469,15 +4969,26 @@
       <c r="C143">
         <v>5.57</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
+        <f>(B143/C143)*100%</f>
+        <v>1.0017953321364452</v>
+      </c>
+      <c r="E143">
         <v>1.644725</v>
       </c>
-      <c r="F143" s="1">
-        <f t="shared" si="2"/>
-        <v>1.0017953321364452</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="F143" t="s">
+        <v>159</v>
+      </c>
+      <c r="H143" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J143" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" t="s">
         <v>148</v>
       </c>
@@ -3487,15 +4998,26 @@
       <c r="C144">
         <v>18.48</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
+        <f>(B144/C144)*100%</f>
+        <v>2.1764069264069263</v>
+      </c>
+      <c r="E144">
         <v>3281485.75</v>
       </c>
-      <c r="F144" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1764069264069263</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="F144" t="s">
+        <v>159</v>
+      </c>
+      <c r="H144" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J144" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" t="s">
         <v>149</v>
       </c>
@@ -3505,15 +5027,26 @@
       <c r="C145">
         <v>18.46</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
+        <f>(B145/C145)*100%</f>
+        <v>2.1830985915492955</v>
+      </c>
+      <c r="E145">
         <v>32000</v>
       </c>
-      <c r="F145" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1830985915492955</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="F145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H145" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J145" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" t="s">
         <v>150</v>
       </c>
@@ -3523,15 +5056,26 @@
       <c r="C146">
         <v>11.59</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
+        <f>(B146/C146)*100%</f>
+        <v>2.1207937877480587</v>
+      </c>
+      <c r="E146">
         <v>1346302.125</v>
       </c>
-      <c r="F146" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1207937877480587</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="F146" t="s">
+        <v>159</v>
+      </c>
+      <c r="H146" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J146" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" t="s">
         <v>151</v>
       </c>
@@ -3541,15 +5085,26 @@
       <c r="C147">
         <v>1.86</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
+        <f>(B147/C147)*100%</f>
+        <v>3.0322580645161286</v>
+      </c>
+      <c r="E147">
         <v>361034.03125</v>
       </c>
-      <c r="F147" s="1">
-        <f t="shared" si="2"/>
-        <v>3.0322580645161286</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="F147" t="s">
+        <v>162</v>
+      </c>
+      <c r="H147" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J147" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" t="s">
         <v>152</v>
       </c>
@@ -3559,15 +5114,26 @@
       <c r="C148">
         <v>11.58</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
+        <f>(B148/C148)*100%</f>
+        <v>2.1122625215889466</v>
+      </c>
+      <c r="E148">
         <v>1.644725</v>
       </c>
-      <c r="F148" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1122625215889466</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="F148" t="s">
+        <v>159</v>
+      </c>
+      <c r="H148" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J148" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" t="s">
         <v>153</v>
       </c>
@@ -3577,15 +5143,26 @@
       <c r="C149">
         <v>11.57</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
+        <f>(B149/C149)*100%</f>
+        <v>2.1149524632670698</v>
+      </c>
+      <c r="E149">
         <v>32000</v>
       </c>
-      <c r="F149" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1149524632670698</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="F149" t="s">
+        <v>159</v>
+      </c>
+      <c r="H149" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J149" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" t="s">
         <v>154</v>
       </c>
@@ -3595,15 +5172,23 @@
       <c r="C150">
         <v>13.85</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
+        <f>(B150/C150)*100%</f>
+        <v>4.0166064981949461</v>
+      </c>
+      <c r="E150">
         <v>10.950721</v>
       </c>
-      <c r="F150" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0166064981949461</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="H150" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J150" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" t="s">
         <v>155</v>
       </c>
@@ -3613,15 +5198,23 @@
       <c r="C151">
         <v>16.43</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
+        <f>(B151/C151)*100%</f>
+        <v>3.3956177723676202</v>
+      </c>
+      <c r="E151">
         <v>1.644725</v>
       </c>
-      <c r="F151" s="1">
-        <f t="shared" si="2"/>
-        <v>3.3956177723676202</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="H151" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J151" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" t="s">
         <v>156</v>
       </c>
@@ -3631,15 +5224,53 @@
       <c r="C152">
         <v>76.599999999999994</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
+        <f>(B152/C152)*100%</f>
+        <v>3.6373368146214102</v>
+      </c>
+      <c r="E152">
         <v>180.316971</v>
       </c>
-      <c r="F152" s="1">
-        <f t="shared" si="2"/>
-        <v>3.6373368146214102</v>
+      <c r="H152" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J152" s="1" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D152">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="2"/>
+        <cfvo type="num" val="4"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H152 I63">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.9"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J152">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="4TrafficLights">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.9"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/performanceResult.xlsx
+++ b/performanceResult.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="51580" yWindow="8380" windowWidth="51200" windowHeight="27560" tabRatio="500"/>
+    <workbookView xWindow="59220" yWindow="2640" windowWidth="51200" windowHeight="27560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
   <si>
     <t>Platform: Hudson-31</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t>Time runrose nolibrary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Performance increse(compared to vec result)</t>
   </si>
 </sst>
 </file>
@@ -562,8 +568,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -585,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -594,6 +602,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -602,6 +611,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -933,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -967,8 +977,14 @@
       <c r="G1" t="s">
         <v>163</v>
       </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
       <c r="I1" t="s">
         <v>164</v>
+      </c>
+      <c r="J1" t="s">
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
@@ -985,7 +1001,7 @@
         <v>3.38</v>
       </c>
       <c r="D2" s="1">
-        <f>(B2/C2)*100%</f>
+        <f t="shared" ref="D2:D33" si="0">(B2/C2)*100%</f>
         <v>2.3579881656804735</v>
       </c>
       <c r="E2">
@@ -1020,18 +1036,18 @@
         <v>4.84</v>
       </c>
       <c r="D3" s="1">
-        <f>(B3/C3)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.98140495867768596</v>
       </c>
       <c r="E3">
         <v>32000.410156000002</v>
       </c>
       <c r="H3" s="1" t="e">
-        <f t="shared" ref="H3:J66" si="0">(C3/G3)*100%</f>
+        <f t="shared" ref="H3:I66" si="1">(C3/G3)*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="1" t="e">
-        <f t="shared" ref="J3:J66" si="1">(C3/I3)*100%</f>
+        <f t="shared" ref="J3:J66" si="2">(C3/I3)*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1046,18 +1062,18 @@
         <v>10.11</v>
       </c>
       <c r="D4" s="1">
-        <f>(B4/C4)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.9970326409495549</v>
       </c>
       <c r="E4">
         <v>16005.412109000001</v>
       </c>
       <c r="H4" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1072,18 +1088,18 @@
         <v>12.08</v>
       </c>
       <c r="D5" s="1">
-        <f>(B5/C5)*100%</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E5">
         <v>84644.898438000004</v>
       </c>
       <c r="H5" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1098,7 +1114,7 @@
         <v>12.09</v>
       </c>
       <c r="D6" s="1">
-        <f>(B6/C6)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99503722084367241</v>
       </c>
       <c r="E6">
@@ -1111,14 +1127,14 @@
         <v>11.54</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0476603119584056</v>
       </c>
       <c r="I6">
         <v>6.98</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7320916905444126</v>
       </c>
     </row>
@@ -1133,7 +1149,7 @@
         <v>16.07</v>
       </c>
       <c r="D7" s="1">
-        <f>(B7/C7)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99377722464219043</v>
       </c>
       <c r="E7">
@@ -1146,14 +1162,14 @@
         <v>13.6</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1816176470588236</v>
       </c>
       <c r="I7">
         <v>9.1199999999999992</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7620614035087721</v>
       </c>
     </row>
@@ -1168,18 +1184,18 @@
         <v>8.0399999999999991</v>
       </c>
       <c r="D8" s="1">
-        <f>(B8/C8)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99253731343283602</v>
       </c>
       <c r="E8">
         <v>32001.640625</v>
       </c>
       <c r="H8" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1194,18 +1210,18 @@
         <v>8.31</v>
       </c>
       <c r="D9" s="1">
-        <f>(B9/C9)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99518652226233439</v>
       </c>
       <c r="E9">
         <v>2634.2202149999998</v>
       </c>
       <c r="H9" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J9" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1220,18 +1236,18 @@
         <v>38.19</v>
       </c>
       <c r="D10" s="1">
-        <f>(B10/C10)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99607227022780831</v>
       </c>
       <c r="E10">
         <v>31746.753906000002</v>
       </c>
       <c r="H10" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J10" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1246,18 +1262,18 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="D11" s="1">
-        <f>(B11/C11)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.97492477432296887</v>
       </c>
       <c r="E11">
         <v>6.5485000000000002E-2</v>
       </c>
       <c r="H11" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J11" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1272,18 +1288,18 @@
         <v>24.51</v>
       </c>
       <c r="D12" s="1">
-        <f>(B12/C12)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99959200326397379</v>
       </c>
       <c r="E12">
         <v>32000</v>
       </c>
       <c r="H12" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J12" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1298,18 +1314,18 @@
         <v>8.43</v>
       </c>
       <c r="D13" s="1">
-        <f>(B13/C13)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.98695136417556351</v>
       </c>
       <c r="E13">
         <v>1239551</v>
       </c>
       <c r="H13" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1324,18 +1340,18 @@
         <v>4.47</v>
       </c>
       <c r="D14" s="1">
-        <f>(B14/C14)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.0559284116331096</v>
       </c>
       <c r="E14">
         <v>86333.179688000004</v>
       </c>
       <c r="H14" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J14" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1350,18 +1366,18 @@
         <v>3.51</v>
       </c>
       <c r="D15" s="1">
-        <f>(B15/C15)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.6324786324786329</v>
       </c>
       <c r="E15">
         <v>106405.335938</v>
       </c>
       <c r="H15" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J15" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1376,18 +1392,18 @@
         <v>6.65</v>
       </c>
       <c r="D16" s="1">
-        <f>(B16/C16)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.8060150375939847</v>
       </c>
       <c r="E16">
         <v>32009.023438</v>
       </c>
       <c r="H16" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J16" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1402,18 +1418,18 @@
         <v>5.57</v>
       </c>
       <c r="D17" s="1">
-        <f>(B17/C17)*100%</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E17">
         <v>361014.15625</v>
       </c>
       <c r="H17" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J17" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1428,18 +1444,18 @@
         <v>5.73</v>
       </c>
       <c r="D18" s="1">
-        <f>(B18/C18)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99301919720767884</v>
       </c>
       <c r="E18">
         <v>32003.283202999999</v>
       </c>
       <c r="H18" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J18" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1454,18 +1470,18 @@
         <v>7.56</v>
       </c>
       <c r="D19" s="1">
-        <f>(B19/C19)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99074074074074081</v>
       </c>
       <c r="E19">
         <v>32001.640625</v>
       </c>
       <c r="H19" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1480,18 +1496,18 @@
         <v>3.86</v>
       </c>
       <c r="D20" s="1">
-        <f>(B20/C20)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.6113989637305699</v>
       </c>
       <c r="E20">
         <v>131072</v>
       </c>
       <c r="H20" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1506,18 +1522,18 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="D21" s="1">
-        <f>(B21/C21)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.03125</v>
       </c>
       <c r="E21">
         <v>344012.53125</v>
       </c>
       <c r="H21" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1532,18 +1548,18 @@
         <v>6.68</v>
       </c>
       <c r="D22" s="1">
-        <f>(B22/C22)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.4101796407185629</v>
       </c>
       <c r="E22">
         <v>32003.283202999999</v>
       </c>
       <c r="H22" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J22" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1558,18 +1574,18 @@
         <v>8.98</v>
       </c>
       <c r="D23" s="1">
-        <f>(B23/C23)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.94988864142538965</v>
       </c>
       <c r="E23">
         <v>80000</v>
       </c>
       <c r="H23" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J23" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1584,18 +1600,18 @@
         <v>11.08</v>
       </c>
       <c r="D24" s="1">
-        <f>(B24/C24)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.8068592057761732</v>
       </c>
       <c r="E24">
         <v>32009.023438</v>
       </c>
       <c r="H24" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J24" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1610,18 +1626,18 @@
         <v>6.19</v>
       </c>
       <c r="D25" s="1">
-        <f>(B25/C25)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.9693053311793212</v>
       </c>
       <c r="E25">
         <v>65538.5625</v>
       </c>
       <c r="H25" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J25" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1636,18 +1652,18 @@
         <v>10.93</v>
       </c>
       <c r="D26" s="1">
-        <f>(B26/C26)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.94053064958828902</v>
       </c>
       <c r="E26">
         <v>1055941.75</v>
       </c>
       <c r="H26" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J26" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1662,18 +1678,18 @@
         <v>11.08</v>
       </c>
       <c r="D27" s="1">
-        <f>(B27/C27)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.8059566787003611</v>
       </c>
       <c r="E27">
         <v>32009.023438</v>
       </c>
       <c r="H27" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J27" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1688,18 +1704,18 @@
         <v>5.47</v>
       </c>
       <c r="D28" s="1">
-        <f>(B28/C28)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.0219378427787937</v>
       </c>
       <c r="E28">
         <v>272427.3125</v>
       </c>
       <c r="H28" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1714,18 +1730,18 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="D29" s="1">
-        <f>(B29/C29)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.99751243781094534</v>
       </c>
       <c r="E29">
         <v>64002.054687999997</v>
       </c>
       <c r="H29" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1740,18 +1756,18 @@
         <v>6.38</v>
       </c>
       <c r="D30" s="1">
-        <f>(B30/C30)*100%</f>
+        <f t="shared" si="0"/>
         <v>0.9890282131661442</v>
       </c>
       <c r="E30">
         <v>64001.640625</v>
       </c>
       <c r="H30" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1766,18 +1782,18 @@
         <v>3.24</v>
       </c>
       <c r="D31" s="1">
-        <f>(B31/C31)*100%</f>
+        <f t="shared" si="0"/>
         <v>1.87037037037037</v>
       </c>
       <c r="E31">
         <v>32009.023438</v>
       </c>
       <c r="H31" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1792,18 +1808,18 @@
         <v>1.86</v>
       </c>
       <c r="D32" s="1">
-        <f>(B32/C32)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.150537634408602</v>
       </c>
       <c r="E32">
         <v>361034.03125</v>
       </c>
       <c r="H32" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1818,18 +1834,18 @@
         <v>1.85</v>
       </c>
       <c r="D33" s="1">
-        <f>(B33/C33)*100%</f>
+        <f t="shared" si="0"/>
         <v>2.1621621621621618</v>
       </c>
       <c r="E33">
         <v>361034.03125</v>
       </c>
       <c r="H33" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J33" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1844,18 +1860,18 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="D34" s="1">
-        <f>(B34/C34)*100%</f>
+        <f t="shared" ref="D34:D65" si="3">(B34/C34)*100%</f>
         <v>2.062186559679037</v>
       </c>
       <c r="E34">
         <v>32001.626952999999</v>
       </c>
       <c r="H34" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J34" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1870,18 +1886,18 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="D35" s="1">
-        <f>(B35/C35)*100%</f>
+        <f t="shared" si="3"/>
         <v>2.062186559679037</v>
       </c>
       <c r="E35">
         <v>32001.626952999999</v>
       </c>
       <c r="H35" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J35" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1896,18 +1912,18 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="D36" s="1">
-        <f>(B36/C36)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.8018018018018016</v>
       </c>
       <c r="E36">
         <v>32009.023438</v>
       </c>
       <c r="H36" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1922,18 +1938,18 @@
         <v>1.92</v>
       </c>
       <c r="D37" s="1">
-        <f>(B37/C37)*100%</f>
+        <f t="shared" si="3"/>
         <v>2.8229166666666665</v>
       </c>
       <c r="E37">
         <v>32127.939452999999</v>
       </c>
       <c r="H37" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J37" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1948,18 +1964,18 @@
         <v>9.26</v>
       </c>
       <c r="D38" s="1">
-        <f>(B38/C38)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.2278617710583153</v>
       </c>
       <c r="E38">
         <v>63983.308594000002</v>
       </c>
       <c r="H38" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J38" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1974,7 +1990,7 @@
         <v>8.11</v>
       </c>
       <c r="D39" s="1">
-        <f>(B39/C39)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.2071516646115905</v>
       </c>
       <c r="E39">
@@ -1987,14 +2003,14 @@
         <v>7.19</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1279554937413072</v>
       </c>
       <c r="I39">
         <v>6.14</v>
       </c>
       <c r="J39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3208469055374592</v>
       </c>
     </row>
@@ -2009,18 +2025,18 @@
         <v>7.5</v>
       </c>
       <c r="D40" s="1">
-        <f>(B40/C40)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0826666666666667</v>
       </c>
       <c r="E40">
         <v>32021.820312</v>
       </c>
       <c r="H40" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2035,7 +2051,7 @@
         <v>4.17</v>
       </c>
       <c r="D41" s="1">
-        <f>(B41/C41)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0455635491606716</v>
       </c>
       <c r="E41">
@@ -2048,14 +2064,14 @@
         <v>6.22</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67041800643086813</v>
       </c>
       <c r="I41">
         <v>6.13</v>
       </c>
       <c r="J41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.68026101141924955</v>
       </c>
     </row>
@@ -2070,18 +2086,18 @@
         <v>1.59</v>
       </c>
       <c r="D42" s="1">
-        <f>(B42/C42)*100%</f>
+        <f t="shared" si="3"/>
         <v>3.0628930817610063</v>
       </c>
       <c r="E42">
         <v>128037192</v>
       </c>
       <c r="H42" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2096,7 +2112,7 @@
         <v>10.17</v>
       </c>
       <c r="D43" s="1">
-        <f>(B43/C43)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0009832841691249</v>
       </c>
       <c r="E43">
@@ -2109,14 +2125,14 @@
         <v>12.99</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78290993071593529</v>
       </c>
       <c r="I43">
         <v>12.19</v>
       </c>
       <c r="J43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.83429040196882698</v>
       </c>
     </row>
@@ -2131,18 +2147,18 @@
         <v>6.17</v>
       </c>
       <c r="D44" s="1">
-        <f>(B44/C44)*100%</f>
+        <f t="shared" si="3"/>
         <v>3.6401944894651543</v>
       </c>
       <c r="E44">
         <v>106405.335938</v>
       </c>
       <c r="H44" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J44" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2157,18 +2173,18 @@
         <v>9.81</v>
       </c>
       <c r="D45" s="1">
-        <f>(B45/C45)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.99184505606523954</v>
       </c>
       <c r="E45">
         <v>65536</v>
       </c>
       <c r="H45" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J45" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2183,18 +2199,18 @@
         <v>14.34</v>
       </c>
       <c r="D46" s="1">
-        <f>(B46/C46)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.99302649930264997</v>
       </c>
       <c r="E46">
         <v>32893.511719000002</v>
       </c>
       <c r="H46" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J46" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2209,7 +2225,7 @@
         <v>48.57</v>
       </c>
       <c r="D47" s="1">
-        <f>(B47/C47)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0883261272390363</v>
       </c>
       <c r="E47">
@@ -2222,14 +2238,14 @@
         <v>6.47</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5069551777434311</v>
       </c>
       <c r="I47">
         <v>4.8</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.11875</v>
       </c>
     </row>
@@ -2244,7 +2260,7 @@
         <v>27.3</v>
       </c>
       <c r="D48" s="1">
-        <f>(B48/C48)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.1424908424908424</v>
       </c>
       <c r="E48">
@@ -2257,14 +2273,14 @@
         <v>6.01</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5424292845257908</v>
       </c>
       <c r="I48">
         <v>3.46</v>
       </c>
       <c r="J48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8901734104046248</v>
       </c>
     </row>
@@ -2279,7 +2295,7 @@
         <v>12.4</v>
       </c>
       <c r="D49" s="1">
-        <f>(B49/C49)*100%</f>
+        <f t="shared" si="3"/>
         <v>3.8903225806451611</v>
       </c>
       <c r="E49">
@@ -2292,14 +2308,14 @@
         <v>14.18</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87447108603667145</v>
       </c>
       <c r="I49">
         <v>12.12</v>
       </c>
       <c r="J49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0231023102310233</v>
       </c>
     </row>
@@ -2314,7 +2330,7 @@
         <v>16.54</v>
       </c>
       <c r="D50" s="1">
-        <f>(B50/C50)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.1964933494558645</v>
       </c>
       <c r="E50">
@@ -2327,14 +2343,14 @@
         <v>23.56</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.70203735144312396</v>
       </c>
       <c r="I50">
         <v>20.420000000000002</v>
       </c>
       <c r="J50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80999020568070512</v>
       </c>
     </row>
@@ -2349,18 +2365,18 @@
         <v>1.53</v>
       </c>
       <c r="D51" s="1">
-        <f>(B51/C51)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.98692810457516333</v>
       </c>
       <c r="E51">
         <v>1535966336</v>
       </c>
       <c r="H51" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J51" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2375,7 +2391,7 @@
         <v>10.19</v>
       </c>
       <c r="D52" s="1">
-        <f>(B52/C52)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.323846908734053</v>
       </c>
       <c r="E52">
@@ -2388,14 +2404,14 @@
         <v>12.09</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84284532671629442</v>
       </c>
       <c r="I52">
         <v>11.53</v>
       </c>
       <c r="J52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88378143972246315</v>
       </c>
     </row>
@@ -2410,7 +2426,7 @@
         <v>10.24</v>
       </c>
       <c r="D53" s="1">
-        <f>(B53/C53)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.119140625</v>
       </c>
       <c r="E53">
@@ -2423,14 +2439,14 @@
         <v>10.87</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94204231830726781</v>
       </c>
       <c r="I53">
         <v>10.11</v>
       </c>
       <c r="J53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0128585558852623</v>
       </c>
     </row>
@@ -2445,7 +2461,7 @@
         <v>9.26</v>
       </c>
       <c r="D54" s="1">
-        <f>(B54/C54)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0064794816414688</v>
       </c>
       <c r="E54">
@@ -2458,14 +2474,14 @@
         <v>13.54</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68389955686853765</v>
       </c>
       <c r="I54">
         <v>9.27</v>
       </c>
       <c r="J54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99892125134843579</v>
       </c>
     </row>
@@ -2480,7 +2496,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="D55" s="1">
-        <f>(B55/C55)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.4143426294820718</v>
       </c>
       <c r="E55">
@@ -2493,14 +2509,14 @@
         <v>7.38</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68021680216802161</v>
       </c>
       <c r="I55">
         <v>6.83</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.73499267935578327</v>
       </c>
     </row>
@@ -2515,7 +2531,7 @@
         <v>25.15</v>
       </c>
       <c r="D56" s="1">
-        <f>(B56/C56)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0015904572564613</v>
       </c>
       <c r="E56">
@@ -2528,14 +2544,14 @@
         <v>23.47</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0715807413719642</v>
       </c>
       <c r="I56">
         <v>17.79</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4137155705452502</v>
       </c>
     </row>
@@ -2550,7 +2566,7 @@
         <v>21.26</v>
       </c>
       <c r="D57" s="1">
-        <f>(B57/C57)*100%</f>
+        <f t="shared" si="3"/>
         <v>2.1128880526810914</v>
       </c>
       <c r="E57">
@@ -2563,14 +2579,14 @@
         <v>35.35</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.60141442715700144</v>
       </c>
       <c r="I57">
         <v>26.53</v>
       </c>
       <c r="J57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.80135695439125521</v>
       </c>
     </row>
@@ -2585,7 +2601,7 @@
         <v>9.02</v>
       </c>
       <c r="D58" s="1">
-        <f>(B58/C58)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.2527716186252773</v>
       </c>
       <c r="E58">
@@ -2598,14 +2614,14 @@
         <v>9.1</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99120879120879124</v>
       </c>
       <c r="I58">
         <v>6.9</v>
       </c>
       <c r="J58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3072463768115941</v>
       </c>
     </row>
@@ -2620,7 +2636,7 @@
         <v>16.12</v>
       </c>
       <c r="D59" s="1">
-        <f>(B59/C59)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.68424317617865993</v>
       </c>
       <c r="E59">
@@ -2630,11 +2646,11 @@
         <v>161</v>
       </c>
       <c r="H59" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2649,7 +2665,7 @@
         <v>5.78</v>
       </c>
       <c r="D60" s="1">
-        <f>(B60/C60)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.99307958477508651</v>
       </c>
       <c r="E60">
@@ -2662,14 +2678,14 @@
         <v>5.68</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.017605633802817</v>
       </c>
       <c r="I60">
         <v>3.42</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6900584795321638</v>
       </c>
     </row>
@@ -2684,7 +2700,7 @@
         <v>8.65</v>
       </c>
       <c r="D61" s="1">
-        <f>(B61/C61)*100%</f>
+        <f t="shared" si="3"/>
         <v>0.99537572254335249</v>
       </c>
       <c r="E61">
@@ -2694,14 +2710,14 @@
         <v>159</v>
       </c>
       <c r="H61" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I61">
         <v>9.84</v>
       </c>
       <c r="J61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87906504065040658</v>
       </c>
     </row>
@@ -2716,7 +2732,7 @@
         <v>22.32</v>
       </c>
       <c r="D62" s="1">
-        <f>(B62/C62)*100%</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E62">
@@ -2729,14 +2745,14 @@
         <v>29.69</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75176827214550357</v>
       </c>
       <c r="I62">
         <v>9.8800000000000008</v>
       </c>
       <c r="J62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2591093117408905</v>
       </c>
     </row>
@@ -2751,7 +2767,7 @@
         <v>7.52</v>
       </c>
       <c r="D63" s="1">
-        <f>(B63/C63)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0345744680851066</v>
       </c>
       <c r="E63">
@@ -2764,15 +2780,15 @@
         <v>10.41</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72238232468780017</v>
       </c>
       <c r="I63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4321702410593031</v>
       </c>
       <c r="J63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2507724182551367</v>
       </c>
     </row>
@@ -2787,18 +2803,18 @@
         <v>6.4</v>
       </c>
       <c r="D64" s="1">
-        <f>(B64/C64)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.046875</v>
       </c>
       <c r="E64">
         <v>162944</v>
       </c>
       <c r="H64" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J64" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2813,18 +2829,18 @@
         <v>2.08</v>
       </c>
       <c r="D65" s="1">
-        <f>(B65/C65)*100%</f>
+        <f t="shared" si="3"/>
         <v>1.0384615384615385</v>
       </c>
       <c r="E65">
         <v>163072</v>
       </c>
       <c r="H65" s="1" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J65" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2839,7 +2855,7 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="D66" s="1">
-        <f>(B66/C66)*100%</f>
+        <f t="shared" ref="D66:D97" si="4">(B66/C66)*100%</f>
         <v>1.2844036697247705</v>
       </c>
       <c r="E66">
@@ -2852,14 +2868,14 @@
         <v>6.51</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1674347158218126</v>
       </c>
       <c r="I66">
         <v>0.85</v>
       </c>
       <c r="J66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2823529411764707</v>
       </c>
     </row>
@@ -2874,7 +2890,7 @@
         <v>8.06</v>
       </c>
       <c r="D67" s="1">
-        <f>(B67/C67)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.001240694789082</v>
       </c>
       <c r="E67">
@@ -2887,14 +2903,14 @@
         <v>7.02</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" ref="H67:J130" si="2">(C67/G67)*100%</f>
+        <f t="shared" ref="H67:H130" si="5">(C67/G67)*100%</f>
         <v>1.1481481481481484</v>
       </c>
       <c r="I67">
         <v>6.06</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J130" si="3">(C67/I67)*100%</f>
+        <f t="shared" ref="J67:J130" si="6">(C67/I67)*100%</f>
         <v>1.3300330033003303</v>
       </c>
     </row>
@@ -2909,7 +2925,7 @@
         <v>24.56</v>
       </c>
       <c r="D68" s="1">
-        <f>(B68/C68)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99755700325732899</v>
       </c>
       <c r="E68">
@@ -2919,14 +2935,14 @@
         <v>159</v>
       </c>
       <c r="H68" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I68">
         <v>15.82</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.5524652338811631</v>
       </c>
     </row>
@@ -2941,7 +2957,7 @@
         <v>10.08</v>
       </c>
       <c r="D69" s="1">
-        <f>(B69/C69)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.1785714285714286</v>
       </c>
       <c r="E69">
@@ -2951,14 +2967,14 @@
         <v>162</v>
       </c>
       <c r="H69" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I69">
         <v>7.28</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3846153846153846</v>
       </c>
     </row>
@@ -2973,7 +2989,7 @@
         <v>9.85</v>
       </c>
       <c r="D70" s="1">
-        <f>(B70/C70)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0040609137055838</v>
       </c>
       <c r="E70">
@@ -2983,14 +2999,14 @@
         <v>162</v>
       </c>
       <c r="H70" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I70">
         <v>7.54</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.306366047745358</v>
       </c>
     </row>
@@ -3005,7 +3021,7 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="D71" s="1">
-        <f>(B71/C71)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.237945492662474</v>
       </c>
       <c r="E71">
@@ -3015,14 +3031,14 @@
         <v>159</v>
       </c>
       <c r="H71" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I71">
         <v>10.49</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.90943755958055283</v>
       </c>
     </row>
@@ -3037,7 +3053,7 @@
         <v>3.12</v>
       </c>
       <c r="D72" s="1">
-        <f>(B72/C72)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0673076923076923</v>
       </c>
       <c r="E72">
@@ -3047,14 +3063,14 @@
         <v>160</v>
       </c>
       <c r="H72" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I72">
         <v>0.28999999999999998</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>10.758620689655174</v>
       </c>
     </row>
@@ -3069,7 +3085,7 @@
         <v>7.92</v>
       </c>
       <c r="D73" s="1">
-        <f>(B73/C73)*100%</f>
+        <f t="shared" si="4"/>
         <v>4.166666666666667</v>
       </c>
       <c r="E73">
@@ -3082,14 +3098,14 @@
         <v>7.11</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1.1139240506329113</v>
       </c>
       <c r="I73">
         <v>5.69</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3919156414762741</v>
       </c>
     </row>
@@ -3104,7 +3120,7 @@
         <v>24.22</v>
       </c>
       <c r="D74" s="1">
-        <f>(B74/C74)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0066061106523534</v>
       </c>
       <c r="E74">
@@ -3114,11 +3130,11 @@
         <v>162</v>
       </c>
       <c r="H74" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J74" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3133,18 +3149,18 @@
         <v>3.71</v>
       </c>
       <c r="D75" s="1">
-        <f>(B75/C75)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99730458221024265</v>
       </c>
       <c r="E75">
         <v>32000</v>
       </c>
       <c r="H75" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J75" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3159,18 +3175,18 @@
         <v>10.14</v>
       </c>
       <c r="D76" s="1">
-        <f>(B76/C76)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99309664694280075</v>
       </c>
       <c r="E76">
         <v>64012.589844000002</v>
       </c>
       <c r="H76" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J76" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3185,18 +3201,18 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D77" s="1">
-        <f>(B77/C77)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.98431372549019602</v>
       </c>
       <c r="E77">
         <v>64014.289062000003</v>
       </c>
       <c r="H77" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J77" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3211,18 +3227,18 @@
         <v>6.87</v>
       </c>
       <c r="D78" s="1">
-        <f>(B78/C78)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99854439592430866</v>
       </c>
       <c r="E78">
         <v>361018.59375</v>
       </c>
       <c r="H78" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J78" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3237,18 +3253,18 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="D79" s="1">
-        <f>(B79/C79)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.1850311850311852</v>
       </c>
       <c r="E79">
         <v>96003.28125</v>
       </c>
       <c r="H79" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J79" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3263,7 +3279,7 @@
         <v>30.26</v>
       </c>
       <c r="D80" s="1">
-        <f>(B80/C80)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99570389953734295</v>
       </c>
       <c r="E80">
@@ -3272,15 +3288,18 @@
       <c r="F80" t="s">
         <v>159</v>
       </c>
-      <c r="H80" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G80">
+        <v>50.16</v>
+      </c>
+      <c r="H80" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60326953748006384</v>
       </c>
       <c r="I80">
         <v>18.5</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.6356756756756758</v>
       </c>
     </row>
@@ -3295,7 +3314,7 @@
         <v>24.66</v>
       </c>
       <c r="D81" s="1">
-        <f>(B81/C81)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99513381995133821</v>
       </c>
       <c r="E81">
@@ -3305,14 +3324,14 @@
         <v>159</v>
       </c>
       <c r="H81" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I81">
         <v>18.440000000000001</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3373101952277657</v>
       </c>
     </row>
@@ -3327,18 +3346,21 @@
         <v>8.61</v>
       </c>
       <c r="D82" s="1">
-        <f>(B82/C82)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.98373983739837412</v>
       </c>
       <c r="E82">
         <v>32000</v>
       </c>
+      <c r="G82" t="s">
+        <v>165</v>
+      </c>
       <c r="H82" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
       <c r="J82" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3353,7 +3375,7 @@
         <v>21.89</v>
       </c>
       <c r="D83" s="1">
-        <f>(B83/C83)*100%</f>
+        <f t="shared" si="4"/>
         <v>2.348104157149383</v>
       </c>
       <c r="E83" t="s">
@@ -3366,14 +3388,14 @@
         <v>51.47</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42529628910044687</v>
       </c>
       <c r="I83">
         <v>27.19</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.8050753953659433</v>
       </c>
     </row>
@@ -3388,18 +3410,18 @@
         <v>11.16</v>
       </c>
       <c r="D84" s="1">
-        <f>(B84/C84)*100%</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E84">
         <v>32000</v>
       </c>
       <c r="H84" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J84" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3414,18 +3436,18 @@
         <v>7.51</v>
       </c>
       <c r="D85" s="1">
-        <f>(B85/C85)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0359520639147803</v>
       </c>
       <c r="E85">
         <v>31953.501952999999</v>
       </c>
       <c r="H85" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J85" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3440,7 +3462,7 @@
         <v>14.8</v>
       </c>
       <c r="D86" s="1">
-        <f>(B86/C86)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0006756756756756</v>
       </c>
       <c r="E86">
@@ -3450,11 +3472,11 @@
         <v>162</v>
       </c>
       <c r="H86" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J86" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3469,7 +3491,7 @@
         <v>1.52</v>
       </c>
       <c r="D87" s="1">
-        <f>(B87/C87)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.90131578947368429</v>
       </c>
       <c r="E87">
@@ -3479,11 +3501,11 @@
         <v>159</v>
       </c>
       <c r="H87" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J87" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3498,7 +3520,7 @@
         <v>15.45</v>
       </c>
       <c r="D88" s="1">
-        <f>(B88/C88)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99546925566343047</v>
       </c>
       <c r="E88">
@@ -3508,11 +3530,11 @@
         <v>160</v>
       </c>
       <c r="H88" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J88" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3527,18 +3549,18 @@
         <v>6.06</v>
       </c>
       <c r="D89" s="1">
-        <f>(B89/C89)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.71782178217821779</v>
       </c>
       <c r="E89">
         <v>3</v>
       </c>
       <c r="H89" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J89" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3553,18 +3575,18 @@
         <v>13.84</v>
       </c>
       <c r="D90" s="1">
-        <f>(B90/C90)*100%</f>
+        <f t="shared" si="4"/>
         <v>4.0065028901734108</v>
       </c>
       <c r="E90">
         <v>10.950721</v>
       </c>
       <c r="H90" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J90" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3579,18 +3601,18 @@
         <v>5.33</v>
       </c>
       <c r="D91" s="1">
-        <f>(B91/C91)*100%</f>
+        <f t="shared" si="4"/>
         <v>0.99812382739212013</v>
       </c>
       <c r="E91">
         <v>10.950721</v>
       </c>
       <c r="H91" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J91" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3605,18 +3627,18 @@
         <v>18.46</v>
       </c>
       <c r="D92" s="1">
-        <f>(B92/C92)*100%</f>
+        <f t="shared" si="4"/>
         <v>4.0037919826652217</v>
       </c>
       <c r="E92">
         <v>1.030518</v>
       </c>
       <c r="H92" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J92" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3631,18 +3653,18 @@
         <v>8.23</v>
       </c>
       <c r="D93" s="1">
-        <f>(B93/C93)*100%</f>
+        <f t="shared" si="4"/>
         <v>3.3936816524908866</v>
       </c>
       <c r="E93">
         <v>1.644725</v>
       </c>
       <c r="H93" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J93" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3657,18 +3679,18 @@
         <v>36.979999999999997</v>
       </c>
       <c r="D94" s="1">
-        <f>(B94/C94)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0021633315305571</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="H94" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J94" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3683,18 +3705,18 @@
         <v>5.56</v>
       </c>
       <c r="D95" s="1">
-        <f>(B95/C95)*100%</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E95">
         <v>54857</v>
       </c>
       <c r="H95" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J95" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3709,18 +3731,18 @@
         <v>36.97</v>
       </c>
       <c r="D96" s="1">
-        <f>(B96/C96)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.0016229375169057</v>
       </c>
       <c r="E96">
         <v>3.1000000000000001E-5</v>
       </c>
       <c r="H96" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J96" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3735,18 +3757,18 @@
         <v>371.16</v>
       </c>
       <c r="D97" s="1">
-        <f>(B97/C97)*100%</f>
+        <f t="shared" si="4"/>
         <v>1.010265114775299</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="H97" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J97" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3761,18 +3783,18 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D98" s="1">
-        <f>(B98/C98)*100%</f>
+        <f t="shared" ref="D98:D129" si="7">(B98/C98)*100%</f>
         <v>1</v>
       </c>
       <c r="E98">
         <v>32002</v>
       </c>
       <c r="H98" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J98" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3787,18 +3809,18 @@
         <v>13.16</v>
       </c>
       <c r="D99" s="1">
-        <f>(B99/C99)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.5455927051671732</v>
       </c>
       <c r="E99">
         <v>43.802883000000001</v>
       </c>
       <c r="H99" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J99" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3813,18 +3835,18 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="D100" s="1">
-        <f>(B100/C100)*100%</f>
+        <f t="shared" si="7"/>
         <v>0.52139639639639634</v>
       </c>
       <c r="E100">
         <v>514</v>
       </c>
       <c r="H100" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J100" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3839,18 +3861,18 @@
         <v>5.92</v>
       </c>
       <c r="D101" s="1">
-        <f>(B101/C101)*100%</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E101">
         <v>4</v>
       </c>
       <c r="H101" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J101" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3865,18 +3887,18 @@
         <v>7.4</v>
       </c>
       <c r="D102" s="1">
-        <f>(B102/C102)*100%</f>
+        <f t="shared" si="7"/>
         <v>0.37702702702702701</v>
       </c>
       <c r="E102">
         <v>10.950721</v>
       </c>
       <c r="H102" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J102" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3891,18 +3913,18 @@
         <v>5.55</v>
       </c>
       <c r="D103" s="1">
-        <f>(B103/C103)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0018018018018018</v>
       </c>
       <c r="E103">
         <v>52619.914062000003</v>
       </c>
       <c r="H103" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J103" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3917,18 +3939,18 @@
         <v>44.39</v>
       </c>
       <c r="D104" s="1">
-        <f>(B104/C104)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.001802207704438</v>
       </c>
       <c r="E104">
         <v>2</v>
       </c>
       <c r="H104" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J104" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3943,18 +3965,18 @@
         <v>12.94</v>
       </c>
       <c r="D105" s="1">
-        <f>(B105/C105)*100%</f>
+        <f t="shared" si="7"/>
         <v>0.99922720247295216</v>
       </c>
       <c r="E105">
         <v>32000</v>
       </c>
       <c r="H105" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J105" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3969,18 +3991,18 @@
         <v>7.87</v>
       </c>
       <c r="D106" s="1">
-        <f>(B106/C106)*100%</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E106">
         <v>32000</v>
       </c>
       <c r="H106" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J106" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3995,18 +4017,18 @@
         <v>5.7</v>
       </c>
       <c r="D107" s="1">
-        <f>(B107/C107)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0087719298245614</v>
       </c>
       <c r="E107">
         <v>146472.4375</v>
       </c>
       <c r="H107" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J107" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4021,18 +4043,18 @@
         <v>5.55</v>
       </c>
       <c r="D108" s="1">
-        <f>(B108/C108)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0018018018018018</v>
       </c>
       <c r="E108">
         <v>32000</v>
       </c>
       <c r="H108" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J108" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4047,18 +4069,18 @@
         <v>5.55</v>
       </c>
       <c r="D109" s="1">
-        <f>(B109/C109)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0018018018018018</v>
       </c>
       <c r="E109">
         <v>2</v>
       </c>
       <c r="H109" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J109" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4073,18 +4095,18 @@
         <v>7.41</v>
       </c>
       <c r="D110" s="1">
-        <f>(B110/C110)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.001349527665317</v>
       </c>
       <c r="E110">
         <v>10.950721</v>
       </c>
       <c r="H110" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J110" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4099,18 +4121,18 @@
         <v>7.42</v>
       </c>
       <c r="D111" s="1">
-        <f>(B111/C111)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0040431266846361</v>
       </c>
       <c r="E111">
         <v>10.950721</v>
       </c>
       <c r="H111" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J111" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4125,18 +4147,18 @@
         <v>1.74</v>
       </c>
       <c r="D112" s="1">
-        <f>(B112/C112)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.1551724137931034</v>
       </c>
       <c r="E112">
         <v>1567.8428960000001</v>
       </c>
       <c r="H112" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J112" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4151,7 +4173,7 @@
         <v>14.23</v>
       </c>
       <c r="D113" s="1">
-        <f>(B113/C113)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.2543921293042866</v>
       </c>
       <c r="E113">
@@ -4161,11 +4183,11 @@
         <v>160</v>
       </c>
       <c r="H113" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J113" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4180,18 +4202,18 @@
         <v>20.309999999999999</v>
       </c>
       <c r="D114" s="1">
-        <f>(B114/C114)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.7552929591334319</v>
       </c>
       <c r="E114">
         <v>32008.869140999999</v>
       </c>
       <c r="H114" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J114" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4206,7 +4228,7 @@
         <v>31.9</v>
       </c>
       <c r="D115" s="1">
-        <f>(B115/C115)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0018808777429469</v>
       </c>
       <c r="E115">
@@ -4216,11 +4238,11 @@
         <v>159</v>
       </c>
       <c r="H115" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J115" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4235,18 +4257,18 @@
         <v>6.05</v>
       </c>
       <c r="D116" s="1">
-        <f>(B116/C116)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0082644628099173</v>
       </c>
       <c r="E116">
         <v>6401676800</v>
       </c>
       <c r="H116" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J116" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4261,18 +4283,18 @@
         <v>9.14</v>
       </c>
       <c r="D117" s="1">
-        <f>(B117/C117)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.4420131291028446</v>
       </c>
       <c r="E117">
         <v>32009.023438</v>
       </c>
       <c r="H117" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J117" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4287,18 +4309,18 @@
         <v>8.69</v>
       </c>
       <c r="D118" s="1">
-        <f>(B118/C118)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.5615650172612203</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="H118" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J118" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4313,18 +4335,18 @@
         <v>46.3</v>
       </c>
       <c r="D119" s="1">
-        <f>(B119/C119)*100%</f>
+        <f t="shared" si="7"/>
         <v>0.99870410367170637</v>
       </c>
       <c r="E119">
         <v>5079.8647460000002</v>
       </c>
       <c r="H119" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J119" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4339,18 +4361,18 @@
         <v>10.18</v>
       </c>
       <c r="D120" s="1">
-        <f>(B120/C120)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.2534381139489197</v>
       </c>
       <c r="E120">
         <v>32000.683593999998</v>
       </c>
       <c r="H120" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J120" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4365,18 +4387,18 @@
         <v>7.96</v>
       </c>
       <c r="D121" s="1">
-        <f>(B121/C121)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.7939698492462308</v>
       </c>
       <c r="E121">
         <v>32818.730469000002</v>
       </c>
       <c r="H121" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J121" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4391,7 +4413,7 @@
         <v>18.510000000000002</v>
       </c>
       <c r="D122" s="1">
-        <f>(B122/C122)*100%</f>
+        <f t="shared" si="7"/>
         <v>2.1615343057806586</v>
       </c>
       <c r="E122">
@@ -4401,11 +4423,11 @@
         <v>162</v>
       </c>
       <c r="H122" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J122" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4420,7 +4442,7 @@
         <v>8.6</v>
       </c>
       <c r="D123" s="1">
-        <f>(B123/C123)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0011627906976743</v>
       </c>
       <c r="E123">
@@ -4430,11 +4452,11 @@
         <v>160</v>
       </c>
       <c r="H123" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J123" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4449,18 +4471,18 @@
         <v>5.76</v>
       </c>
       <c r="D124" s="1">
-        <f>(B124/C124)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0347222222222223</v>
       </c>
       <c r="E124">
         <v>196500.265625</v>
       </c>
       <c r="H124" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J124" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4475,18 +4497,18 @@
         <v>12.1</v>
       </c>
       <c r="D125" s="1">
-        <f>(B125/C125)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0115702479338844</v>
       </c>
       <c r="E125">
         <v>689788.5625</v>
       </c>
       <c r="H125" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J125" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4501,7 +4523,7 @@
         <v>19.46</v>
       </c>
       <c r="D126" s="1">
-        <f>(B126/C126)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0621788283658788</v>
       </c>
       <c r="E126">
@@ -4511,11 +4533,11 @@
         <v>162</v>
       </c>
       <c r="H126" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J126" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4530,7 +4552,7 @@
         <v>11.2</v>
       </c>
       <c r="D127" s="1">
-        <f>(B127/C127)*100%</f>
+        <f t="shared" si="7"/>
         <v>6.6044642857142861</v>
       </c>
       <c r="E127">
@@ -4540,11 +4562,11 @@
         <v>162</v>
       </c>
       <c r="H127" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J127" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4559,7 +4581,7 @@
         <v>11.11</v>
       </c>
       <c r="D128" s="1">
-        <f>(B128/C128)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.0027002700270029</v>
       </c>
       <c r="E128">
@@ -4569,11 +4591,11 @@
         <v>159</v>
       </c>
       <c r="H128" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J128" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4588,18 +4610,18 @@
         <v>5.04</v>
       </c>
       <c r="D129" s="1">
-        <f>(B129/C129)*100%</f>
+        <f t="shared" si="7"/>
         <v>1.2956349206349207</v>
       </c>
       <c r="E129">
         <v>64004.925780999998</v>
       </c>
       <c r="H129" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J129" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4614,18 +4636,18 @@
         <v>8</v>
       </c>
       <c r="D130" s="1">
-        <f>(B130/C130)*100%</f>
+        <f t="shared" ref="D130:D152" si="8">(B130/C130)*100%</f>
         <v>1.0062500000000001</v>
       </c>
       <c r="E130">
         <v>361034.03125</v>
       </c>
       <c r="H130" s="1" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J130" s="1" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4640,18 +4662,18 @@
         <v>7.59</v>
       </c>
       <c r="D131" s="1">
-        <f>(B131/C131)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0026350461133071</v>
       </c>
       <c r="E131">
         <v>361034.03125</v>
       </c>
       <c r="H131" s="1" t="e">
-        <f t="shared" ref="H131:J152" si="4">(C131/G131)*100%</f>
+        <f t="shared" ref="H131:H152" si="9">(C131/G131)*100%</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J131" s="1" t="e">
-        <f t="shared" ref="J131:J152" si="5">(C131/I131)*100%</f>
+        <f t="shared" ref="J131:J152" si="10">(C131/I131)*100%</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4666,7 +4688,7 @@
         <v>8.1300000000000008</v>
       </c>
       <c r="D132" s="1">
-        <f>(B132/C132)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0061500615006149</v>
       </c>
       <c r="E132">
@@ -4676,11 +4698,11 @@
         <v>162</v>
       </c>
       <c r="H132" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J132" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4695,7 +4717,7 @@
         <v>6.22</v>
       </c>
       <c r="D133" s="1">
-        <f>(B133/C133)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0112540192926045</v>
       </c>
       <c r="E133">
@@ -4705,11 +4727,11 @@
         <v>162</v>
       </c>
       <c r="H133" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J133" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4724,7 +4746,7 @@
         <v>6.49</v>
       </c>
       <c r="D134" s="1">
-        <f>(B134/C134)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0046224961479198</v>
       </c>
       <c r="E134">
@@ -4734,11 +4756,11 @@
         <v>162</v>
       </c>
       <c r="H134" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J134" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4753,18 +4775,18 @@
         <v>8.43</v>
       </c>
       <c r="D135" s="1">
-        <f>(B135/C135)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.01067615658363</v>
       </c>
       <c r="E135">
         <v>32000</v>
       </c>
       <c r="H135" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J135" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4779,18 +4801,18 @@
         <v>6.2</v>
       </c>
       <c r="D136" s="1">
-        <f>(B136/C136)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0096774193548386</v>
       </c>
       <c r="E136">
         <v>1.0386359999999999</v>
       </c>
       <c r="H136" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J136" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4805,18 +4827,18 @@
         <v>4.6100000000000003</v>
       </c>
       <c r="D137" s="1">
-        <f>(B137/C137)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0043383947939262</v>
       </c>
       <c r="E137">
         <v>4.0034E-2</v>
       </c>
       <c r="H137" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J137" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4831,18 +4853,18 @@
         <v>7.51</v>
       </c>
       <c r="D138" s="1">
-        <f>(B138/C138)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.007989347536618</v>
       </c>
       <c r="E138">
         <v>32002.205077999999</v>
       </c>
       <c r="H138" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J138" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4857,18 +4879,18 @@
         <v>2.9</v>
       </c>
       <c r="D139" s="1">
-        <f>(B139/C139)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1068965517241383</v>
       </c>
       <c r="E139">
         <v>361034.03125</v>
       </c>
       <c r="H139" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J139" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4883,7 +4905,7 @@
         <v>13.42</v>
       </c>
       <c r="D140" s="1">
-        <f>(B140/C140)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.7682563338301041</v>
       </c>
       <c r="E140">
@@ -4893,11 +4915,11 @@
         <v>159</v>
       </c>
       <c r="H140" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J140" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4912,7 +4934,7 @@
         <v>9.06</v>
       </c>
       <c r="D141" s="1">
-        <f>(B141/C141)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0386313465783663</v>
       </c>
       <c r="E141">
@@ -4922,11 +4944,11 @@
         <v>162</v>
       </c>
       <c r="H141" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J141" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4941,7 +4963,7 @@
         <v>11.19</v>
       </c>
       <c r="D142" s="1">
-        <f>(B142/C142)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0071492403932083</v>
       </c>
       <c r="E142">
@@ -4951,11 +4973,11 @@
         <v>162</v>
       </c>
       <c r="H142" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J142" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4970,7 +4992,7 @@
         <v>5.57</v>
       </c>
       <c r="D143" s="1">
-        <f>(B143/C143)*100%</f>
+        <f t="shared" si="8"/>
         <v>1.0017953321364452</v>
       </c>
       <c r="E143">
@@ -4980,11 +5002,11 @@
         <v>159</v>
       </c>
       <c r="H143" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J143" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4999,7 +5021,7 @@
         <v>18.48</v>
       </c>
       <c r="D144" s="1">
-        <f>(B144/C144)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1764069264069263</v>
       </c>
       <c r="E144">
@@ -5009,11 +5031,11 @@
         <v>159</v>
       </c>
       <c r="H144" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J144" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5028,7 +5050,7 @@
         <v>18.46</v>
       </c>
       <c r="D145" s="1">
-        <f>(B145/C145)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1830985915492955</v>
       </c>
       <c r="E145">
@@ -5038,11 +5060,11 @@
         <v>159</v>
       </c>
       <c r="H145" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J145" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5057,7 +5079,7 @@
         <v>11.59</v>
       </c>
       <c r="D146" s="1">
-        <f>(B146/C146)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1207937877480587</v>
       </c>
       <c r="E146">
@@ -5067,11 +5089,11 @@
         <v>159</v>
       </c>
       <c r="H146" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J146" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5086,7 +5108,7 @@
         <v>1.86</v>
       </c>
       <c r="D147" s="1">
-        <f>(B147/C147)*100%</f>
+        <f t="shared" si="8"/>
         <v>3.0322580645161286</v>
       </c>
       <c r="E147">
@@ -5096,11 +5118,11 @@
         <v>162</v>
       </c>
       <c r="H147" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J147" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5115,7 +5137,7 @@
         <v>11.58</v>
       </c>
       <c r="D148" s="1">
-        <f>(B148/C148)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1122625215889466</v>
       </c>
       <c r="E148">
@@ -5125,11 +5147,11 @@
         <v>159</v>
       </c>
       <c r="H148" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J148" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5144,7 +5166,7 @@
         <v>11.57</v>
       </c>
       <c r="D149" s="1">
-        <f>(B149/C149)*100%</f>
+        <f t="shared" si="8"/>
         <v>2.1149524632670698</v>
       </c>
       <c r="E149">
@@ -5154,11 +5176,11 @@
         <v>159</v>
       </c>
       <c r="H149" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J149" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5173,18 +5195,18 @@
         <v>13.85</v>
       </c>
       <c r="D150" s="1">
-        <f>(B150/C150)*100%</f>
+        <f t="shared" si="8"/>
         <v>4.0166064981949461</v>
       </c>
       <c r="E150">
         <v>10.950721</v>
       </c>
       <c r="H150" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J150" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5199,18 +5221,18 @@
         <v>16.43</v>
       </c>
       <c r="D151" s="1">
-        <f>(B151/C151)*100%</f>
+        <f t="shared" si="8"/>
         <v>3.3956177723676202</v>
       </c>
       <c r="E151">
         <v>1.644725</v>
       </c>
       <c r="H151" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J151" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -5225,18 +5247,18 @@
         <v>76.599999999999994</v>
       </c>
       <c r="D152" s="1">
-        <f>(B152/C152)*100%</f>
+        <f t="shared" si="8"/>
         <v>3.6373368146214102</v>
       </c>
       <c r="E152">
         <v>180.316971</v>
       </c>
       <c r="H152" s="1" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J152" s="1" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
     </row>
